--- a/files/p03.xlsx
+++ b/files/p03.xlsx
@@ -429,9 +429,12 @@
       <sheetName val="all-items"/>
       <sheetName val="recipes"/>
       <sheetName val="participants"/>
+      <sheetName val="inventory"/>
+      <sheetName val="places"/>
+      <sheetName val="type"/>
+      <sheetName val="all-items-raw"/>
+      <sheetName val="places_copy"/>
       <sheetName val="participants_raw"/>
-      <sheetName val="inventory"/>
-      <sheetName val="all-items-raw"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1088,18 +1091,18 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>apron</v>
+            <v>artichoke</v>
           </cell>
           <cell r="B4" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C4" t="str">
-            <v>protect</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>artichoke</v>
+            <v>asparagus</v>
           </cell>
           <cell r="B5" t="str">
             <v>c</v>
@@ -1110,7 +1113,7 @@
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>asparagus</v>
+            <v>aubergine</v>
           </cell>
           <cell r="B6" t="str">
             <v>c</v>
@@ -1121,7 +1124,7 @@
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>aubergine</v>
+            <v>avocado</v>
           </cell>
           <cell r="B7" t="str">
             <v>c</v>
@@ -1132,29 +1135,29 @@
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>avocado</v>
+            <v>bacon</v>
           </cell>
           <cell r="B8" t="str">
             <v>c</v>
           </cell>
           <cell r="C8" t="str">
-            <v>produce</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>bacon</v>
+            <v>bag</v>
           </cell>
           <cell r="B9" t="str">
             <v>c</v>
           </cell>
           <cell r="C9" t="str">
-            <v>proteins</v>
+            <v>disposables</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>bag</v>
+            <v>bagFreezer</v>
           </cell>
           <cell r="B10" t="str">
             <v>c</v>
@@ -1165,7 +1168,7 @@
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>bagFreezer</v>
+            <v>bakingPaper</v>
           </cell>
           <cell r="B11" t="str">
             <v>c</v>
@@ -1176,106 +1179,106 @@
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>bakingPaper</v>
+            <v>bakingPwd</v>
           </cell>
           <cell r="B12" t="str">
             <v>c</v>
           </cell>
           <cell r="C12" t="str">
-            <v>disposables</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>bakingPwd</v>
+            <v>basil</v>
           </cell>
           <cell r="B13" t="str">
             <v>c</v>
           </cell>
           <cell r="C13" t="str">
-            <v>cereals</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>basil</v>
+            <v>basilPwd</v>
           </cell>
           <cell r="B14" t="str">
             <v>c</v>
           </cell>
           <cell r="C14" t="str">
-            <v>produce</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>basilPwd</v>
+            <v>beans</v>
           </cell>
           <cell r="B15" t="str">
             <v>c</v>
           </cell>
           <cell r="C15" t="str">
-            <v>spice</v>
+            <v>legumes</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>beans</v>
+            <v>beanSprouts</v>
           </cell>
           <cell r="B16" t="str">
             <v>c</v>
           </cell>
           <cell r="C16" t="str">
-            <v>legumes</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>beanSprouts</v>
+            <v>beef</v>
           </cell>
           <cell r="B17" t="str">
             <v>c</v>
           </cell>
           <cell r="C17" t="str">
-            <v>produce</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>beef</v>
+            <v>beer</v>
           </cell>
           <cell r="B18" t="str">
             <v>c</v>
           </cell>
           <cell r="C18" t="str">
-            <v>proteins</v>
+            <v>drinks</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>beer</v>
+            <v>bellPepper</v>
           </cell>
           <cell r="B19" t="str">
             <v>c</v>
           </cell>
           <cell r="C19" t="str">
-            <v>drinks</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>bellPepper</v>
+            <v>blackPepper</v>
           </cell>
           <cell r="B20" t="str">
             <v>c</v>
           </cell>
           <cell r="C20" t="str">
-            <v>produce</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>blackPepper</v>
+            <v>bouillon</v>
           </cell>
           <cell r="B21" t="str">
             <v>c</v>
@@ -1286,106 +1289,106 @@
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>blender</v>
+            <v>bread</v>
           </cell>
           <cell r="B22" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C22" t="str">
-            <v>prepare</v>
+            <v>breads</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>bottle</v>
+            <v>butter</v>
           </cell>
           <cell r="B23" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C23" t="str">
-            <v>contain</v>
+            <v>oils&amp;fats</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>bouillon</v>
+            <v>butternutSquash</v>
           </cell>
           <cell r="B24" t="str">
             <v>c</v>
           </cell>
           <cell r="C24" t="str">
-            <v>spice</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>bowl</v>
+            <v>cabbage</v>
           </cell>
           <cell r="B25" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C25" t="str">
-            <v>contain</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>boxCondiments</v>
+            <v>cake</v>
           </cell>
           <cell r="B26" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C26" t="str">
-            <v>contain</v>
+            <v>breads</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>bread</v>
+            <v>cardamon</v>
           </cell>
           <cell r="B27" t="str">
             <v>c</v>
           </cell>
           <cell r="C27" t="str">
-            <v>breads</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>brush</v>
+            <v>caribeanSpices</v>
           </cell>
           <cell r="B28" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C28" t="str">
-            <v>clean</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>bucket</v>
+            <v>carrots</v>
           </cell>
           <cell r="B29" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C29" t="str">
-            <v>contain</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>butter</v>
+            <v>cayenne</v>
           </cell>
           <cell r="B30" t="str">
             <v>c</v>
           </cell>
           <cell r="C30" t="str">
-            <v>oils&amp;fats</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>butternutSquash</v>
+            <v>celery</v>
           </cell>
           <cell r="B31" t="str">
             <v>c</v>
@@ -1396,51 +1399,51 @@
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>cabbage</v>
+            <v>cheese</v>
           </cell>
           <cell r="B32" t="str">
             <v>c</v>
           </cell>
           <cell r="C32" t="str">
-            <v>produce</v>
+            <v>dairy</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>cake</v>
+            <v>chicken</v>
           </cell>
           <cell r="B33" t="str">
             <v>c</v>
           </cell>
           <cell r="C33" t="str">
-            <v>breads</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>canOpener</v>
+            <v>chickpeas</v>
           </cell>
           <cell r="B34" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C34" t="str">
-            <v>prepare</v>
+            <v>legumes</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>cardamon</v>
+            <v>chillies</v>
           </cell>
           <cell r="B35" t="str">
             <v>c</v>
           </cell>
           <cell r="C35" t="str">
-            <v>spice</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>caribeanSpices</v>
+            <v>chilliesFlakes</v>
           </cell>
           <cell r="B36" t="str">
             <v>c</v>
@@ -1451,29 +1454,29 @@
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>carrots</v>
+            <v>chilliesPwd</v>
           </cell>
           <cell r="B37" t="str">
             <v>c</v>
           </cell>
           <cell r="C37" t="str">
-            <v>produce</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>case</v>
+            <v>chineseGreens</v>
           </cell>
           <cell r="B38" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C38" t="str">
-            <v>noCooking</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>cayenne</v>
+            <v>chineseSpice</v>
           </cell>
           <cell r="B39" t="str">
             <v>c</v>
@@ -1484,106 +1487,106 @@
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>celery</v>
+            <v>chips</v>
           </cell>
           <cell r="B40" t="str">
             <v>c</v>
           </cell>
           <cell r="C40" t="str">
-            <v>produce</v>
+            <v>breads</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>charger</v>
+            <v>chives</v>
           </cell>
           <cell r="B41" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C41" t="str">
-            <v>noCooking</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>cheese</v>
+            <v>chorizo</v>
           </cell>
           <cell r="B42" t="str">
             <v>c</v>
           </cell>
           <cell r="C42" t="str">
-            <v>dairy</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>chicken</v>
+            <v>cider</v>
           </cell>
           <cell r="B43" t="str">
             <v>c</v>
           </cell>
           <cell r="C43" t="str">
-            <v>proteins</v>
+            <v>drinks</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>chickpeas</v>
+            <v>cilantroBase</v>
           </cell>
           <cell r="B44" t="str">
             <v>c</v>
           </cell>
           <cell r="C44" t="str">
-            <v>legumes</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>chillies</v>
+            <v>cinamon</v>
           </cell>
           <cell r="B45" t="str">
             <v>c</v>
           </cell>
           <cell r="C45" t="str">
-            <v>produce</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>chilliesFlakes</v>
+            <v>cleaningLiquid</v>
           </cell>
           <cell r="B46" t="str">
             <v>c</v>
           </cell>
           <cell r="C46" t="str">
-            <v>spice</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>chilliesPwd</v>
+            <v>clingFilm</v>
           </cell>
           <cell r="B47" t="str">
             <v>c</v>
           </cell>
           <cell r="C47" t="str">
-            <v>spice</v>
+            <v>disposables</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>chineseGreens</v>
+            <v>cloth</v>
           </cell>
           <cell r="B48" t="str">
             <v>c</v>
           </cell>
           <cell r="C48" t="str">
-            <v>produce</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>chineseSpice</v>
+            <v>cocoa</v>
           </cell>
           <cell r="B49" t="str">
             <v>c</v>
@@ -1594,227 +1597,227 @@
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>chips</v>
+            <v>coconutCream</v>
           </cell>
           <cell r="B50" t="str">
             <v>c</v>
           </cell>
           <cell r="C50" t="str">
-            <v>breads</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>chives</v>
+            <v>coffee</v>
           </cell>
           <cell r="B51" t="str">
             <v>c</v>
           </cell>
           <cell r="C51" t="str">
-            <v>spice</v>
+            <v>drinks</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>chopB</v>
+            <v>coriander</v>
           </cell>
           <cell r="B52" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C52" t="str">
-            <v>prepare</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>chopSticks</v>
+            <v>corianderPwd</v>
           </cell>
           <cell r="B53" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C53" t="str">
-            <v>manipulate</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>chorizo</v>
+            <v>corn</v>
           </cell>
           <cell r="B54" t="str">
             <v>c</v>
           </cell>
           <cell r="C54" t="str">
-            <v>proteins</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>cider</v>
+            <v>cornFlour</v>
           </cell>
           <cell r="B55" t="str">
             <v>c</v>
           </cell>
           <cell r="C55" t="str">
-            <v>drinks</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>cilantroBase</v>
+            <v>courgette</v>
           </cell>
           <cell r="B56" t="str">
             <v>c</v>
           </cell>
           <cell r="C56" t="str">
-            <v>condiment</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>cinamon</v>
+            <v>cream</v>
           </cell>
           <cell r="B57" t="str">
             <v>c</v>
           </cell>
           <cell r="C57" t="str">
-            <v>spice</v>
+            <v>dairy</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>cleaningLiquid</v>
+            <v>cucumber</v>
           </cell>
           <cell r="B58" t="str">
             <v>c</v>
           </cell>
           <cell r="C58" t="str">
-            <v>cleaning</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>clingFilm</v>
+            <v>cumin</v>
           </cell>
           <cell r="B59" t="str">
             <v>c</v>
           </cell>
           <cell r="C59" t="str">
-            <v>disposables</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>cloth</v>
+            <v>curry</v>
           </cell>
           <cell r="B60" t="str">
             <v>c</v>
           </cell>
           <cell r="C60" t="str">
-            <v>cleaning</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>clothes</v>
+            <v>disposables</v>
           </cell>
           <cell r="B61" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C61" t="str">
-            <v>noCooking</v>
+            <v>disposables</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>cocoa</v>
+            <v>dWashL</v>
           </cell>
           <cell r="B62" t="str">
             <v>c</v>
           </cell>
           <cell r="C62" t="str">
-            <v>spice</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>coconutCream</v>
+            <v>eggs</v>
           </cell>
           <cell r="B63" t="str">
             <v>c</v>
           </cell>
           <cell r="C63" t="str">
-            <v>condiment</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>coffee</v>
+            <v>fennel</v>
           </cell>
           <cell r="B64" t="str">
             <v>c</v>
           </cell>
           <cell r="C64" t="str">
-            <v>drinks</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>coffeeMachine</v>
+            <v>fishSauce</v>
           </cell>
           <cell r="B65" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C65" t="str">
-            <v>toHeat</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>colander</v>
+            <v>fiveSpicesSeasoning</v>
           </cell>
           <cell r="B66" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C66" t="str">
-            <v>manipulate</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>computer</v>
+            <v>flour</v>
           </cell>
           <cell r="B67" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C67" t="str">
-            <v>tech</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>container</v>
+            <v>food</v>
           </cell>
           <cell r="B68" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C68" t="str">
-            <v>store</v>
+            <v>food</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>cookingSpoon</v>
+            <v>frozenVegs</v>
           </cell>
           <cell r="B69" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C69" t="str">
-            <v>manipulate</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>coriander</v>
+            <v>garlic</v>
           </cell>
           <cell r="B70" t="str">
             <v>c</v>
@@ -1825,7 +1828,7 @@
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>corianderPwd</v>
+            <v>garlicPwd</v>
           </cell>
           <cell r="B71" t="str">
             <v>c</v>
@@ -1836,271 +1839,271 @@
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>corn</v>
+            <v>ginger</v>
           </cell>
           <cell r="B72" t="str">
             <v>c</v>
           </cell>
           <cell r="C72" t="str">
-            <v>produce</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>cornFlour</v>
+            <v>gloves</v>
           </cell>
           <cell r="B73" t="str">
             <v>c</v>
           </cell>
           <cell r="C73" t="str">
-            <v>cereals</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>courgette</v>
+            <v>goyaSeasoning</v>
           </cell>
           <cell r="B74" t="str">
             <v>c</v>
           </cell>
           <cell r="C74" t="str">
-            <v>produce</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>cpB</v>
+            <v>greenBeans</v>
           </cell>
           <cell r="B75" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C75" t="str">
-            <v>toStore</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>cream</v>
+            <v>greenPeas</v>
           </cell>
           <cell r="B76" t="str">
             <v>c</v>
           </cell>
           <cell r="C76" t="str">
-            <v>dairy</v>
+            <v>legumes</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>crusher</v>
+            <v>greenSnaps</v>
           </cell>
           <cell r="B77" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C77" t="str">
-            <v>prepare</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>cucumber</v>
+            <v>ham</v>
           </cell>
           <cell r="B78" t="str">
             <v>c</v>
           </cell>
           <cell r="C78" t="str">
-            <v>produce</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>cumin</v>
+            <v>hoisinSauce</v>
           </cell>
           <cell r="B79" t="str">
             <v>c</v>
           </cell>
           <cell r="C79" t="str">
-            <v>spice</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>cup</v>
+            <v>hotSauce</v>
           </cell>
           <cell r="B80" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C80" t="str">
-            <v>contain</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>curry</v>
+            <v>hummus</v>
           </cell>
           <cell r="B81" t="str">
             <v>c</v>
           </cell>
           <cell r="C81" t="str">
-            <v>spice</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>cutlery</v>
+            <v>hWashL</v>
           </cell>
           <cell r="B82" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C82" t="str">
-            <v>manipulate</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>dishTray</v>
+            <v>italianSpices</v>
           </cell>
           <cell r="B83" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C83" t="str">
-            <v>clean</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>dishWasher</v>
+            <v>jam</v>
           </cell>
           <cell r="B84" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C84" t="str">
-            <v xml:space="preserve">toClean </v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>disposables</v>
+            <v>juice</v>
           </cell>
           <cell r="B85" t="str">
             <v>c</v>
           </cell>
           <cell r="C85" t="str">
-            <v>disposables</v>
+            <v>drinks</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>documents</v>
+            <v>kale</v>
           </cell>
           <cell r="B86" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C86" t="str">
-            <v>noCooking</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>dustBrush</v>
+            <v>kitchenRoll</v>
           </cell>
           <cell r="B87" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C87" t="str">
-            <v>clean</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>dustPan</v>
+            <v>kiwi</v>
           </cell>
           <cell r="B88" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C88" t="str">
-            <v>clean</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>dw</v>
+            <v>lard</v>
           </cell>
           <cell r="B89" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C89" t="str">
-            <v>toStore</v>
+            <v>oils&amp;fats</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>dWashL</v>
+            <v>leeks</v>
           </cell>
           <cell r="B90" t="str">
             <v>c</v>
           </cell>
           <cell r="C90" t="str">
-            <v>cleaning</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>eggs</v>
+            <v>lemon</v>
           </cell>
           <cell r="B91" t="str">
             <v>c</v>
           </cell>
           <cell r="C91" t="str">
-            <v>proteins</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>extractorFan</v>
+            <v>lettuce</v>
           </cell>
           <cell r="B92" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C92" t="str">
-            <v>toHeat</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>faucet</v>
+            <v>lighter</v>
           </cell>
           <cell r="B93" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C93" t="str">
-            <v>toDispose</v>
+            <v>stationery</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94" t="str">
-            <v>fennel</v>
+            <v>lime</v>
           </cell>
           <cell r="B94" t="str">
             <v>c</v>
           </cell>
           <cell r="C94" t="str">
-            <v>spice</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95" t="str">
-            <v>fireAlarm</v>
+            <v>macarroni</v>
           </cell>
           <cell r="B95" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C95" t="str">
-            <v>toSet</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96" t="str">
-            <v>fishSauce</v>
+            <v>mappleSyrup</v>
           </cell>
           <cell r="B96" t="str">
             <v>c</v>
@@ -2111,7 +2114,7 @@
         </row>
         <row r="97">
           <cell r="A97" t="str">
-            <v>fiveSpicesSeasoning</v>
+            <v>marjoran</v>
           </cell>
           <cell r="B97" t="str">
             <v>c</v>
@@ -2122,139 +2125,139 @@
         </row>
         <row r="98">
           <cell r="A98" t="str">
-            <v>flour</v>
+            <v>masalaSpices</v>
           </cell>
           <cell r="B98" t="str">
             <v>c</v>
           </cell>
           <cell r="C98" t="str">
-            <v>cereals</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99" t="str">
-            <v>food</v>
+            <v>milk</v>
           </cell>
           <cell r="B99" t="str">
             <v>c</v>
           </cell>
           <cell r="C99" t="str">
-            <v>food</v>
+            <v>dairy</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>fork</v>
+            <v>mincedMeat</v>
           </cell>
           <cell r="B100" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C100" t="str">
-            <v>manipulate</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>freezer</v>
+            <v>mint</v>
           </cell>
           <cell r="B101" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C101" t="str">
-            <v>toStore</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102" t="str">
-            <v>fridge</v>
+            <v>mushrooms</v>
           </cell>
           <cell r="B102" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C102" t="str">
-            <v>toStore</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>frozenVegs</v>
+            <v>napkins</v>
           </cell>
           <cell r="B103" t="str">
             <v>c</v>
           </cell>
           <cell r="C103" t="str">
-            <v>produce</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>garlic</v>
+            <v>noodles</v>
           </cell>
           <cell r="B104" t="str">
             <v>c</v>
           </cell>
           <cell r="C104" t="str">
-            <v>produce</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>garlicPwd</v>
+            <v>nuggets</v>
           </cell>
           <cell r="B105" t="str">
             <v>c</v>
           </cell>
           <cell r="C105" t="str">
-            <v>spice</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106" t="str">
-            <v>ginger</v>
+            <v>nuts</v>
           </cell>
           <cell r="B106" t="str">
             <v>c</v>
           </cell>
           <cell r="C106" t="str">
-            <v>spice</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107" t="str">
-            <v>glass</v>
+            <v>oil</v>
           </cell>
           <cell r="B107" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C107" t="str">
-            <v>contain</v>
+            <v>oils&amp;fats</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108" t="str">
-            <v>glassWine</v>
+            <v>oilFlavoured</v>
           </cell>
           <cell r="B108" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C108" t="str">
-            <v>contain</v>
+            <v>oils&amp;fats</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109" t="str">
-            <v>gloves</v>
+            <v>onion</v>
           </cell>
           <cell r="B109" t="str">
             <v>c</v>
           </cell>
           <cell r="C109" t="str">
-            <v>cleaning</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110" t="str">
-            <v>goyaSeasoning</v>
+            <v>oregano</v>
           </cell>
           <cell r="B110" t="str">
             <v>c</v>
@@ -2265,128 +2268,128 @@
         </row>
         <row r="111">
           <cell r="A111" t="str">
-            <v>grater</v>
+            <v>oysterSauce</v>
           </cell>
           <cell r="B111" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C111" t="str">
-            <v>prepare</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112" t="str">
-            <v>greenBeans</v>
+            <v>panko</v>
           </cell>
           <cell r="B112" t="str">
             <v>c</v>
           </cell>
           <cell r="C112" t="str">
-            <v>produce</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113" t="str">
-            <v>greenPeas</v>
+            <v>paprika</v>
           </cell>
           <cell r="B113" t="str">
             <v>c</v>
           </cell>
           <cell r="C113" t="str">
-            <v>legumes</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114" t="str">
-            <v>greenSnaps</v>
+            <v>pen</v>
           </cell>
           <cell r="B114" t="str">
             <v>c</v>
           </cell>
           <cell r="C114" t="str">
-            <v>produce</v>
+            <v>stationery</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115" t="str">
-            <v>ham</v>
+            <v>pizza</v>
           </cell>
           <cell r="B115" t="str">
             <v>c</v>
           </cell>
           <cell r="C115" t="str">
-            <v>proteins</v>
+            <v>readyToEat</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116" t="str">
-            <v>hoisinSauce</v>
+            <v>potatoes</v>
           </cell>
           <cell r="B116" t="str">
             <v>c</v>
           </cell>
           <cell r="C116" t="str">
-            <v>condiment</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117" t="str">
-            <v>holder</v>
+            <v>prawns</v>
           </cell>
           <cell r="B117" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C117" t="str">
-            <v>manipulate</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118" t="str">
-            <v>hotSauce</v>
+            <v>quinoa&amp;rice</v>
           </cell>
           <cell r="B118" t="str">
             <v>c</v>
           </cell>
           <cell r="C118" t="str">
-            <v>condiment</v>
+            <v>readyToEat</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119" t="str">
-            <v>hummus</v>
+            <v>rice</v>
           </cell>
           <cell r="B119" t="str">
             <v>c</v>
           </cell>
           <cell r="C119" t="str">
-            <v>condiment</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120" t="str">
-            <v>hWashL</v>
+            <v>rigatoni</v>
           </cell>
           <cell r="B120" t="str">
             <v>c</v>
           </cell>
           <cell r="C120" t="str">
-            <v>cleaning</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121" t="str">
-            <v>iceRocks</v>
+            <v>rosemary</v>
           </cell>
           <cell r="B121" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C121" t="str">
-            <v>other</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122" t="str">
-            <v>italianSpices</v>
+            <v>salt</v>
           </cell>
           <cell r="B122" t="str">
             <v>c</v>
@@ -2397,51 +2400,51 @@
         </row>
         <row r="123">
           <cell r="A123" t="str">
-            <v>jam</v>
+            <v>sausage</v>
           </cell>
           <cell r="B123" t="str">
             <v>c</v>
           </cell>
           <cell r="C123" t="str">
-            <v>condiment</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124" t="str">
-            <v>jar</v>
+            <v>seasoning</v>
           </cell>
           <cell r="B124" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C124" t="str">
-            <v>contain</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125" t="str">
-            <v>jarBlender</v>
+            <v>seasoningChicken</v>
           </cell>
           <cell r="B125" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C125" t="str">
-            <v>prepare</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="126">
           <cell r="A126" t="str">
-            <v>jarLid</v>
+            <v>soap</v>
           </cell>
           <cell r="B126" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C126" t="str">
-            <v>contain</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127" t="str">
-            <v>juice</v>
+            <v>soda</v>
           </cell>
           <cell r="B127" t="str">
             <v>c</v>
@@ -2452,95 +2455,95 @@
         </row>
         <row r="128">
           <cell r="A128" t="str">
-            <v>kale</v>
+            <v>soySauce</v>
           </cell>
           <cell r="B128" t="str">
             <v>c</v>
           </cell>
           <cell r="C128" t="str">
-            <v>produce</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129" t="str">
-            <v>kettle</v>
+            <v>spaghetti</v>
           </cell>
           <cell r="B129" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C129" t="str">
-            <v>heat</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130" t="str">
-            <v>key</v>
+            <v>spice_ui</v>
           </cell>
           <cell r="B130" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C130" t="str">
-            <v>noCooking</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131" t="str">
-            <v>kitchenRoll</v>
+            <v>spinach</v>
           </cell>
           <cell r="B131" t="str">
             <v>c</v>
           </cell>
           <cell r="C131" t="str">
-            <v>cleaning</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132" t="str">
-            <v>kiwi</v>
+            <v>spirit</v>
           </cell>
           <cell r="B132" t="str">
             <v>c</v>
           </cell>
           <cell r="C132" t="str">
-            <v>produce</v>
+            <v>drinks</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133" t="str">
-            <v>knife</v>
+            <v>sponge</v>
           </cell>
           <cell r="B133" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C133" t="str">
-            <v>prepare</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134" t="str">
-            <v>ladle</v>
+            <v>springOnion</v>
           </cell>
           <cell r="B134" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C134" t="str">
-            <v>manipulate</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135" t="str">
-            <v>lard</v>
+            <v>sugar</v>
           </cell>
           <cell r="B135" t="str">
             <v>c</v>
           </cell>
           <cell r="C135" t="str">
-            <v>oils&amp;fats</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136" t="str">
-            <v>leeks</v>
+            <v>sweetPotatoes</v>
           </cell>
           <cell r="B136" t="str">
             <v>c</v>
@@ -2551,744 +2554,744 @@
         </row>
         <row r="137">
           <cell r="A137" t="str">
-            <v>lemon</v>
+            <v>tahini</v>
           </cell>
           <cell r="B137" t="str">
             <v>c</v>
           </cell>
           <cell r="C137" t="str">
-            <v>produce</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="138">
           <cell r="A138" t="str">
-            <v>lettuce</v>
+            <v>tea</v>
           </cell>
           <cell r="B138" t="str">
             <v>c</v>
           </cell>
           <cell r="C138" t="str">
-            <v>produce</v>
+            <v>drinks</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139" t="str">
-            <v>lid</v>
+            <v>thyme</v>
           </cell>
           <cell r="B139" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C139" t="str">
-            <v>contain</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="140">
           <cell r="A140" t="str">
-            <v>lighter</v>
+            <v>toiletPaper</v>
           </cell>
           <cell r="B140" t="str">
             <v>c</v>
           </cell>
           <cell r="C140" t="str">
-            <v>stationery</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="141">
           <cell r="A141" t="str">
-            <v>lightSwitch</v>
+            <v>tomatoes</v>
           </cell>
           <cell r="B141" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C141" t="str">
-            <v>toSet</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="142">
           <cell r="A142" t="str">
-            <v>lime</v>
+            <v>tomatoesProcessed</v>
           </cell>
           <cell r="B142" t="str">
             <v>c</v>
           </cell>
           <cell r="C142" t="str">
-            <v>produce</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="143">
           <cell r="A143" t="str">
-            <v>lunchBag</v>
+            <v>tomatoesSauce</v>
           </cell>
           <cell r="B143" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C143" t="str">
-            <v>store</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="144">
           <cell r="A144" t="str">
-            <v>macarroni</v>
+            <v>tortillas</v>
           </cell>
           <cell r="B144" t="str">
             <v>c</v>
           </cell>
           <cell r="C144" t="str">
-            <v>cereals</v>
+            <v>breads</v>
           </cell>
         </row>
         <row r="145">
           <cell r="A145" t="str">
-            <v>mappleSyrup</v>
+            <v>turmeric</v>
           </cell>
           <cell r="B145" t="str">
             <v>c</v>
           </cell>
           <cell r="C145" t="str">
-            <v>condiment</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="146">
           <cell r="A146" t="str">
-            <v>marjoran</v>
+            <v>turnip</v>
           </cell>
           <cell r="B146" t="str">
             <v>c</v>
           </cell>
           <cell r="C146" t="str">
-            <v>spice</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="147">
           <cell r="A147" t="str">
-            <v>masalaSpices</v>
+            <v>vinegar</v>
           </cell>
           <cell r="B147" t="str">
             <v>c</v>
           </cell>
           <cell r="C147" t="str">
-            <v>spice</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="148">
           <cell r="A148" t="str">
-            <v>measuringJar</v>
+            <v>water</v>
           </cell>
           <cell r="B148" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C148" t="str">
-            <v>measure</v>
+            <v>water</v>
           </cell>
         </row>
         <row r="149">
           <cell r="A149" t="str">
-            <v>measuringSpoon</v>
+            <v>whitePepper</v>
           </cell>
           <cell r="B149" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C149" t="str">
-            <v>measure</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="150">
           <cell r="A150" t="str">
-            <v>microwave</v>
+            <v>wine</v>
           </cell>
           <cell r="B150" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C150" t="str">
-            <v>toHeat</v>
+            <v>drinks</v>
           </cell>
         </row>
         <row r="151">
           <cell r="A151" t="str">
-            <v>milk</v>
+            <v>wipes</v>
           </cell>
           <cell r="B151" t="str">
             <v>c</v>
           </cell>
           <cell r="C151" t="str">
-            <v>dairy</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="152">
           <cell r="A152" t="str">
-            <v>mincedMeat</v>
+            <v>worcestershireSauce</v>
           </cell>
           <cell r="B152" t="str">
             <v>c</v>
           </cell>
           <cell r="C152" t="str">
-            <v>proteins</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="153">
           <cell r="A153" t="str">
-            <v>mint</v>
+            <v>yogurt</v>
           </cell>
           <cell r="B153" t="str">
             <v>c</v>
           </cell>
           <cell r="C153" t="str">
-            <v>produce</v>
+            <v>dairy</v>
           </cell>
         </row>
         <row r="154">
           <cell r="A154" t="str">
-            <v>mixingBowl</v>
+            <v>coffeeMachine</v>
           </cell>
           <cell r="B154" t="str">
-            <v>u</v>
+            <v>e</v>
           </cell>
           <cell r="C154" t="str">
-            <v>contain</v>
+            <v>toHeat</v>
           </cell>
         </row>
         <row r="155">
           <cell r="A155" t="str">
-            <v>mop</v>
+            <v>cpB</v>
           </cell>
           <cell r="B155" t="str">
-            <v>u</v>
+            <v>e</v>
           </cell>
           <cell r="C155" t="str">
-            <v>clean</v>
+            <v>toStore</v>
           </cell>
         </row>
         <row r="156">
           <cell r="A156" t="str">
-            <v>mortar</v>
+            <v>dishWasher</v>
           </cell>
           <cell r="B156" t="str">
-            <v>u</v>
+            <v>e</v>
           </cell>
           <cell r="C156" t="str">
-            <v>prepare</v>
+            <v xml:space="preserve">toClean </v>
           </cell>
         </row>
         <row r="157">
           <cell r="A157" t="str">
-            <v>mushrooms</v>
+            <v>dw</v>
           </cell>
           <cell r="B157" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C157" t="str">
-            <v>produce</v>
+            <v>toStore</v>
           </cell>
         </row>
         <row r="158">
           <cell r="A158" t="str">
-            <v>napkins</v>
+            <v>extractorFan</v>
           </cell>
           <cell r="B158" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C158" t="str">
-            <v>cleaning</v>
+            <v>toHeat</v>
           </cell>
         </row>
         <row r="159">
           <cell r="A159" t="str">
-            <v>nBook</v>
+            <v>faucet</v>
           </cell>
           <cell r="B159" t="str">
-            <v>u</v>
+            <v>e</v>
           </cell>
           <cell r="C159" t="str">
-            <v>accessInfo</v>
+            <v>toDispose</v>
           </cell>
         </row>
         <row r="160">
           <cell r="A160" t="str">
-            <v>noodles</v>
+            <v>fireAlarm</v>
           </cell>
           <cell r="B160" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C160" t="str">
-            <v>cereals</v>
+            <v>toSet</v>
           </cell>
         </row>
         <row r="161">
           <cell r="A161" t="str">
-            <v>nuggets</v>
+            <v>freezer</v>
           </cell>
           <cell r="B161" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C161" t="str">
-            <v>proteins</v>
+            <v>toStore</v>
           </cell>
         </row>
         <row r="162">
           <cell r="A162" t="str">
-            <v>nuts</v>
+            <v>fridge</v>
           </cell>
           <cell r="B162" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C162" t="str">
-            <v>cereals</v>
+            <v>toStore</v>
           </cell>
         </row>
         <row r="163">
           <cell r="A163" t="str">
-            <v>oil</v>
+            <v>lightSwitch</v>
           </cell>
           <cell r="B163" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C163" t="str">
-            <v>oils&amp;fats</v>
+            <v>toSet</v>
           </cell>
         </row>
         <row r="164">
           <cell r="A164" t="str">
-            <v>oilFlavoured</v>
+            <v>microwave</v>
           </cell>
           <cell r="B164" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C164" t="str">
-            <v>oils&amp;fats</v>
+            <v>toHeat</v>
           </cell>
         </row>
         <row r="165">
           <cell r="A165" t="str">
-            <v>onion</v>
+            <v>oven</v>
           </cell>
           <cell r="B165" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C165" t="str">
-            <v>produce</v>
+            <v>toHeat</v>
           </cell>
         </row>
         <row r="166">
           <cell r="A166" t="str">
-            <v>oregano</v>
+            <v>stove</v>
           </cell>
           <cell r="B166" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C166" t="str">
-            <v>spice</v>
+            <v>toHeat</v>
           </cell>
         </row>
         <row r="167">
           <cell r="A167" t="str">
-            <v>oven</v>
+            <v>washingMachine</v>
           </cell>
           <cell r="B167" t="str">
             <v>e</v>
           </cell>
           <cell r="C167" t="str">
-            <v>toHeat</v>
+            <v xml:space="preserve">toClean </v>
           </cell>
         </row>
         <row r="168">
           <cell r="A168" t="str">
-            <v>ovenDish</v>
+            <v>window</v>
           </cell>
           <cell r="B168" t="str">
-            <v>u</v>
+            <v>e</v>
           </cell>
           <cell r="C168" t="str">
-            <v>heat</v>
+            <v>toSet</v>
           </cell>
         </row>
         <row r="169">
           <cell r="A169" t="str">
-            <v>ovenGloves</v>
+            <v>apron</v>
           </cell>
           <cell r="B169" t="str">
             <v>u</v>
           </cell>
           <cell r="C169" t="str">
-            <v>manipulate</v>
+            <v>protect</v>
           </cell>
         </row>
         <row r="170">
           <cell r="A170" t="str">
-            <v>oysterSauce</v>
+            <v>blender</v>
           </cell>
           <cell r="B170" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C170" t="str">
-            <v>condiment</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="171">
           <cell r="A171" t="str">
-            <v>pan</v>
+            <v>bottle</v>
           </cell>
           <cell r="B171" t="str">
             <v>u</v>
           </cell>
           <cell r="C171" t="str">
-            <v>heat</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="172">
           <cell r="A172" t="str">
-            <v>panko</v>
+            <v>bowl</v>
           </cell>
           <cell r="B172" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C172" t="str">
-            <v>cereals</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="173">
           <cell r="A173" t="str">
-            <v>paprika</v>
+            <v>boxCondiments</v>
           </cell>
           <cell r="B173" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C173" t="str">
-            <v>spice</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="174">
           <cell r="A174" t="str">
-            <v>pastaServer</v>
+            <v>brush</v>
           </cell>
           <cell r="B174" t="str">
             <v>u</v>
           </cell>
           <cell r="C174" t="str">
-            <v>manipulate</v>
+            <v>clean</v>
           </cell>
         </row>
         <row r="175">
           <cell r="A175" t="str">
-            <v>peeler</v>
+            <v>bucket</v>
           </cell>
           <cell r="B175" t="str">
             <v>u</v>
           </cell>
           <cell r="C175" t="str">
-            <v>prepare</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="176">
           <cell r="A176" t="str">
-            <v>pen</v>
+            <v>canOpener</v>
           </cell>
           <cell r="B176" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C176" t="str">
-            <v>stationery</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="177">
           <cell r="A177" t="str">
-            <v>phone</v>
+            <v>case</v>
           </cell>
           <cell r="B177" t="str">
             <v>u</v>
           </cell>
           <cell r="C177" t="str">
-            <v>tech</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="178">
           <cell r="A178" t="str">
-            <v>pizza</v>
+            <v>charger</v>
           </cell>
           <cell r="B178" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C178" t="str">
-            <v>readyToEat</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="179">
           <cell r="A179" t="str">
-            <v>plantPot</v>
+            <v>chopB</v>
           </cell>
           <cell r="B179" t="str">
             <v>u</v>
           </cell>
           <cell r="C179" t="str">
-            <v>noCooking</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="180">
           <cell r="A180" t="str">
-            <v>plate</v>
+            <v>chopSticks</v>
           </cell>
           <cell r="B180" t="str">
             <v>u</v>
           </cell>
           <cell r="C180" t="str">
-            <v>contain</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="181">
           <cell r="A181" t="str">
-            <v>pot</v>
+            <v>clothes</v>
           </cell>
           <cell r="B181" t="str">
             <v>u</v>
           </cell>
           <cell r="C181" t="str">
-            <v>heat</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="182">
           <cell r="A182" t="str">
-            <v>potatoes</v>
+            <v>colander</v>
           </cell>
           <cell r="B182" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C182" t="str">
-            <v>produce</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="183">
           <cell r="A183" t="str">
-            <v>prawns</v>
+            <v>computer</v>
           </cell>
           <cell r="B183" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C183" t="str">
-            <v>proteins</v>
+            <v>tech</v>
           </cell>
         </row>
         <row r="184">
           <cell r="A184" t="str">
-            <v>processor</v>
+            <v>container</v>
           </cell>
           <cell r="B184" t="str">
             <v>u</v>
           </cell>
           <cell r="C184" t="str">
-            <v>prepare</v>
+            <v>store</v>
           </cell>
         </row>
         <row r="185">
           <cell r="A185" t="str">
-            <v>quinoa&amp;rice</v>
+            <v>cookingSpoon</v>
           </cell>
           <cell r="B185" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C185" t="str">
-            <v>readyToEat</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="186">
           <cell r="A186" t="str">
-            <v>radio</v>
+            <v>crusher</v>
           </cell>
           <cell r="B186" t="str">
             <v>u</v>
           </cell>
           <cell r="C186" t="str">
-            <v>tech</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="187">
           <cell r="A187" t="str">
-            <v>rBook</v>
+            <v>cup</v>
           </cell>
           <cell r="B187" t="str">
             <v>u</v>
           </cell>
           <cell r="C187" t="str">
-            <v>accessInfo</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="188">
           <cell r="A188" t="str">
-            <v>remoteControl</v>
+            <v>cutlery</v>
           </cell>
           <cell r="B188" t="str">
             <v>u</v>
           </cell>
           <cell r="C188" t="str">
-            <v>noCooking</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="189">
           <cell r="A189" t="str">
-            <v>rice</v>
+            <v>dishTray</v>
           </cell>
           <cell r="B189" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C189" t="str">
-            <v>cereals</v>
+            <v>clean</v>
           </cell>
         </row>
         <row r="190">
           <cell r="A190" t="str">
-            <v>riceCooker</v>
+            <v>documents</v>
           </cell>
           <cell r="B190" t="str">
             <v>u</v>
           </cell>
           <cell r="C190" t="str">
-            <v>heat</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="191">
           <cell r="A191" t="str">
-            <v>rigatoni</v>
+            <v>dustBrush</v>
           </cell>
           <cell r="B191" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C191" t="str">
-            <v>cereals</v>
+            <v>clean</v>
           </cell>
         </row>
         <row r="192">
           <cell r="A192" t="str">
-            <v>rosemary</v>
+            <v>dustPan</v>
           </cell>
           <cell r="B192" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C192" t="str">
-            <v>spice</v>
+            <v>clean</v>
           </cell>
         </row>
         <row r="193">
           <cell r="A193" t="str">
-            <v>rSheet</v>
+            <v>fork</v>
           </cell>
           <cell r="B193" t="str">
             <v>u</v>
           </cell>
           <cell r="C193" t="str">
-            <v>accessInfo</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="194">
           <cell r="A194" t="str">
-            <v>salt</v>
+            <v>glass</v>
           </cell>
           <cell r="B194" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C194" t="str">
-            <v>spice</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="195">
           <cell r="A195" t="str">
-            <v>sausage</v>
+            <v>glassWine</v>
           </cell>
           <cell r="B195" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C195" t="str">
-            <v>proteins</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="196">
           <cell r="A196" t="str">
-            <v>scale</v>
+            <v>grater</v>
           </cell>
           <cell r="B196" t="str">
             <v>u</v>
           </cell>
           <cell r="C196" t="str">
-            <v>measure</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="197">
           <cell r="A197" t="str">
-            <v>scissors</v>
+            <v>holder</v>
           </cell>
           <cell r="B197" t="str">
             <v>u</v>
           </cell>
           <cell r="C197" t="str">
-            <v>prepare</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="198">
           <cell r="A198" t="str">
-            <v>sealingClips</v>
+            <v>iceRocks</v>
           </cell>
           <cell r="B198" t="str">
             <v>u</v>
           </cell>
           <cell r="C198" t="str">
-            <v>store</v>
+            <v>other</v>
           </cell>
         </row>
         <row r="199">
           <cell r="A199" t="str">
-            <v>seasoning</v>
+            <v>jar</v>
           </cell>
           <cell r="B199" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C199" t="str">
-            <v>spice</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="200">
           <cell r="A200" t="str">
-            <v>seasoningChicken</v>
+            <v>jarBlender</v>
           </cell>
           <cell r="B200" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C200" t="str">
-            <v>spice</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="201">
           <cell r="A201" t="str">
-            <v>sinkDrainer</v>
+            <v>jarLid</v>
           </cell>
           <cell r="B201" t="str">
             <v>u</v>
           </cell>
           <cell r="C201" t="str">
-            <v>manipulate</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="202">
           <cell r="A202" t="str">
-            <v>smartAssistant</v>
+            <v>kettle</v>
           </cell>
           <cell r="B202" t="str">
             <v>u</v>
           </cell>
           <cell r="C202" t="str">
-            <v>tech</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="203">
           <cell r="A203" t="str">
-            <v>smartWatch</v>
+            <v>key</v>
           </cell>
           <cell r="B203" t="str">
             <v>u</v>
           </cell>
           <cell r="C203" t="str">
-            <v>tech</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="204">
           <cell r="A204" t="str">
-            <v>smasher</v>
+            <v>knife</v>
           </cell>
           <cell r="B204" t="str">
             <v>u</v>
@@ -3299,139 +3302,139 @@
         </row>
         <row r="205">
           <cell r="A205" t="str">
-            <v>soap</v>
+            <v>ladle</v>
           </cell>
           <cell r="B205" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C205" t="str">
-            <v>cleaning</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="206">
           <cell r="A206" t="str">
-            <v>soda</v>
+            <v>lid</v>
           </cell>
           <cell r="B206" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C206" t="str">
-            <v>drinks</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="207">
           <cell r="A207" t="str">
-            <v>soySauce</v>
+            <v>lunchBag</v>
           </cell>
           <cell r="B207" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C207" t="str">
-            <v>condiment</v>
+            <v>store</v>
           </cell>
         </row>
         <row r="208">
           <cell r="A208" t="str">
-            <v>spaghetti</v>
+            <v>measuringJar</v>
           </cell>
           <cell r="B208" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C208" t="str">
-            <v>cereals</v>
+            <v>measure</v>
           </cell>
         </row>
         <row r="209">
           <cell r="A209" t="str">
-            <v>speaker</v>
+            <v>measuringSpoon</v>
           </cell>
           <cell r="B209" t="str">
             <v>u</v>
           </cell>
           <cell r="C209" t="str">
-            <v>tech</v>
+            <v>measure</v>
           </cell>
         </row>
         <row r="210">
           <cell r="A210" t="str">
-            <v>spice_ui</v>
+            <v>mixingBowl</v>
           </cell>
           <cell r="B210" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C210" t="str">
-            <v>spice</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="211">
           <cell r="A211" t="str">
-            <v>spinach</v>
+            <v>mop</v>
           </cell>
           <cell r="B211" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C211" t="str">
-            <v>produce</v>
+            <v>clean</v>
           </cell>
         </row>
         <row r="212">
           <cell r="A212" t="str">
-            <v>spirit</v>
+            <v>mortar</v>
           </cell>
           <cell r="B212" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C212" t="str">
-            <v>drinks</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="213">
           <cell r="A213" t="str">
-            <v>sponge</v>
+            <v>nBook</v>
           </cell>
           <cell r="B213" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C213" t="str">
-            <v>cleaning</v>
+            <v>accessInfo</v>
           </cell>
         </row>
         <row r="214">
           <cell r="A214" t="str">
-            <v>spoon</v>
+            <v>ovenDish</v>
           </cell>
           <cell r="B214" t="str">
             <v>u</v>
           </cell>
           <cell r="C214" t="str">
-            <v>manipulate</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="215">
           <cell r="A215" t="str">
-            <v>springOnion</v>
+            <v>ovenGloves</v>
           </cell>
           <cell r="B215" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C215" t="str">
-            <v>produce</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="216">
           <cell r="A216" t="str">
-            <v>stove</v>
+            <v>pan</v>
           </cell>
           <cell r="B216" t="str">
-            <v>e</v>
+            <v>u</v>
           </cell>
           <cell r="C216" t="str">
-            <v>toHeat</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="217">
           <cell r="A217" t="str">
-            <v>strainer</v>
+            <v>pastaServer</v>
           </cell>
           <cell r="B217" t="str">
             <v>u</v>
@@ -3442,387 +3445,387 @@
         </row>
         <row r="218">
           <cell r="A218" t="str">
-            <v>sugar</v>
+            <v>peeler</v>
           </cell>
           <cell r="B218" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C218" t="str">
-            <v>spice</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="219">
           <cell r="A219" t="str">
-            <v>sweetPotatoes</v>
+            <v>phone</v>
           </cell>
           <cell r="B219" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C219" t="str">
-            <v>produce</v>
+            <v>tech</v>
           </cell>
         </row>
         <row r="220">
           <cell r="A220" t="str">
-            <v>tablet</v>
+            <v>plantPot</v>
           </cell>
           <cell r="B220" t="str">
             <v>u</v>
           </cell>
           <cell r="C220" t="str">
-            <v>tech</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="221">
           <cell r="A221" t="str">
-            <v>tahini</v>
+            <v>plate</v>
           </cell>
           <cell r="B221" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C221" t="str">
-            <v>condiment</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="222">
           <cell r="A222" t="str">
-            <v>tea</v>
+            <v>pot</v>
           </cell>
           <cell r="B222" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C222" t="str">
-            <v>drinks</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="223">
           <cell r="A223" t="str">
-            <v>teaPot</v>
+            <v>processor</v>
           </cell>
           <cell r="B223" t="str">
             <v>u</v>
           </cell>
           <cell r="C223" t="str">
-            <v>heat</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="224">
           <cell r="A224" t="str">
-            <v>thyme</v>
+            <v>radio</v>
           </cell>
           <cell r="B224" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C224" t="str">
-            <v>produce</v>
+            <v>tech</v>
           </cell>
         </row>
         <row r="225">
           <cell r="A225" t="str">
-            <v>timer</v>
+            <v>rBook</v>
           </cell>
           <cell r="B225" t="str">
             <v>u</v>
           </cell>
           <cell r="C225" t="str">
-            <v>measure</v>
+            <v>accessInfo</v>
           </cell>
         </row>
         <row r="226">
           <cell r="A226" t="str">
-            <v>toaster</v>
+            <v>remoteControl</v>
           </cell>
           <cell r="B226" t="str">
             <v>u</v>
           </cell>
           <cell r="C226" t="str">
-            <v>heat</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="227">
           <cell r="A227" t="str">
-            <v>toiletPaper</v>
+            <v>riceCooker</v>
           </cell>
           <cell r="B227" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C227" t="str">
-            <v>cleaning</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="228">
           <cell r="A228" t="str">
-            <v>tomatoes</v>
+            <v>rSheet</v>
           </cell>
           <cell r="B228" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C228" t="str">
-            <v>produce</v>
+            <v>accessInfo</v>
           </cell>
         </row>
         <row r="229">
           <cell r="A229" t="str">
-            <v>tomatoesProcessed</v>
+            <v>scale</v>
           </cell>
           <cell r="B229" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C229" t="str">
-            <v>condiment</v>
+            <v>measure</v>
           </cell>
         </row>
         <row r="230">
           <cell r="A230" t="str">
-            <v>tomatoesSauce</v>
+            <v>scissors</v>
           </cell>
           <cell r="B230" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C230" t="str">
-            <v>condiment</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="231">
           <cell r="A231" t="str">
-            <v>tongs</v>
+            <v>sealingClips</v>
           </cell>
           <cell r="B231" t="str">
             <v>u</v>
           </cell>
           <cell r="C231" t="str">
-            <v>manipulate</v>
+            <v>store</v>
           </cell>
         </row>
         <row r="232">
           <cell r="A232" t="str">
-            <v>tortillas</v>
+            <v>sinkDrainer</v>
           </cell>
           <cell r="B232" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C232" t="str">
-            <v>breads</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="233">
           <cell r="A233" t="str">
-            <v>towel</v>
+            <v>smartAssistant</v>
           </cell>
           <cell r="B233" t="str">
             <v>u</v>
           </cell>
           <cell r="C233" t="str">
-            <v>clean</v>
+            <v>tech</v>
           </cell>
         </row>
         <row r="234">
           <cell r="A234" t="str">
-            <v>trashB</v>
+            <v>smartWatch</v>
           </cell>
           <cell r="B234" t="str">
             <v>u</v>
           </cell>
           <cell r="C234" t="str">
-            <v>dispose</v>
+            <v>tech</v>
           </cell>
         </row>
         <row r="235">
           <cell r="A235" t="str">
-            <v>tray</v>
+            <v>smasher</v>
           </cell>
           <cell r="B235" t="str">
             <v>u</v>
           </cell>
           <cell r="C235" t="str">
-            <v>heat</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="236">
           <cell r="A236" t="str">
-            <v>turmeric</v>
+            <v>speaker</v>
           </cell>
           <cell r="B236" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C236" t="str">
-            <v>spice</v>
+            <v>tech</v>
           </cell>
         </row>
         <row r="237">
           <cell r="A237" t="str">
-            <v>turnip</v>
+            <v>spoon</v>
           </cell>
           <cell r="B237" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C237" t="str">
-            <v>produce</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="238">
           <cell r="A238" t="str">
-            <v>vacuum</v>
+            <v>strainer</v>
           </cell>
           <cell r="B238" t="str">
             <v>u</v>
           </cell>
           <cell r="C238" t="str">
-            <v>clean</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="239">
           <cell r="A239" t="str">
-            <v>vaper</v>
+            <v>tablet</v>
           </cell>
           <cell r="B239" t="str">
             <v>u</v>
           </cell>
           <cell r="C239" t="str">
-            <v>noCooking</v>
+            <v>tech</v>
           </cell>
         </row>
         <row r="240">
           <cell r="A240" t="str">
-            <v>vessel</v>
+            <v>teaPot</v>
           </cell>
           <cell r="B240" t="str">
             <v>u</v>
           </cell>
           <cell r="C240" t="str">
-            <v>noCooking</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="241">
           <cell r="A241" t="str">
-            <v>vinegar</v>
+            <v>timer</v>
           </cell>
           <cell r="B241" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C241" t="str">
-            <v>condiment</v>
+            <v>measure</v>
           </cell>
         </row>
         <row r="242">
           <cell r="A242" t="str">
-            <v>washingMachine</v>
+            <v>toaster</v>
           </cell>
           <cell r="B242" t="str">
-            <v>e</v>
+            <v>u</v>
           </cell>
           <cell r="C242" t="str">
-            <v xml:space="preserve">toClean </v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="243">
           <cell r="A243" t="str">
-            <v>water</v>
+            <v>tongs</v>
           </cell>
           <cell r="B243" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C243" t="str">
-            <v>water</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="244">
           <cell r="A244" t="str">
-            <v>whisk</v>
+            <v>towel</v>
           </cell>
           <cell r="B244" t="str">
             <v>u</v>
           </cell>
           <cell r="C244" t="str">
-            <v>manipulate</v>
+            <v>clean</v>
           </cell>
         </row>
         <row r="245">
           <cell r="A245" t="str">
-            <v>whitePepper</v>
+            <v>trashB</v>
           </cell>
           <cell r="B245" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C245" t="str">
-            <v>spice</v>
+            <v>dispose</v>
           </cell>
         </row>
         <row r="246">
           <cell r="A246" t="str">
-            <v>window</v>
+            <v>tray</v>
           </cell>
           <cell r="B246" t="str">
-            <v>e</v>
+            <v>u</v>
           </cell>
           <cell r="C246" t="str">
-            <v>toSet</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="247">
           <cell r="A247" t="str">
-            <v>wine</v>
+            <v>vacuum</v>
           </cell>
           <cell r="B247" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C247" t="str">
-            <v>drinks</v>
+            <v>clean</v>
           </cell>
         </row>
         <row r="248">
           <cell r="A248" t="str">
-            <v>wipes</v>
+            <v>vaper</v>
           </cell>
           <cell r="B248" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C248" t="str">
-            <v>cleaning</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="249">
           <cell r="A249" t="str">
-            <v>wok</v>
+            <v>vessel</v>
           </cell>
           <cell r="B249" t="str">
             <v>u</v>
           </cell>
           <cell r="C249" t="str">
-            <v>heat</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="250">
           <cell r="A250" t="str">
-            <v>worcestershireSauce</v>
+            <v>whisk</v>
           </cell>
           <cell r="B250" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C250" t="str">
-            <v>condiment</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="251">
           <cell r="A251" t="str">
-            <v>wristWatch</v>
+            <v>wok</v>
           </cell>
           <cell r="B251" t="str">
             <v>u</v>
           </cell>
           <cell r="C251" t="str">
-            <v>measure</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="252">
           <cell r="A252" t="str">
-            <v>yogurt</v>
+            <v>wristWatch</v>
           </cell>
           <cell r="B252" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C252" t="str">
-            <v>dairy</v>
+            <v>measure</v>
           </cell>
         </row>
       </sheetData>
@@ -3831,6 +3834,9 @@
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
       <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>

--- a/files/p03.xlsx
+++ b/files/p03.xlsx
@@ -431,7 +431,8 @@
       <sheetName val="participants"/>
       <sheetName val="inventory"/>
       <sheetName val="places"/>
-      <sheetName val="type"/>
+      <sheetName val="forms"/>
+      <sheetName val="activities"/>
       <sheetName val="all-items-raw"/>
       <sheetName val="places_copy"/>
       <sheetName val="participants_raw"/>
@@ -3837,6 +3838,7 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8367,8 +8369,8 @@
   <dimension ref="A1:AI200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12755,15 +12757,15 @@
         <v>1.636574074074074E-2</v>
       </c>
       <c r="D97" s="5">
-        <v>1.6597222222222222E-2</v>
+        <v>1.6620370370370372E-2</v>
       </c>
       <c r="E97" s="5">
         <f t="shared" si="8"/>
-        <v>2.3148148148148182E-4</v>
+        <v>2.5462962962963243E-4</v>
       </c>
       <c r="F97" s="6">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G97" s="6">
         <f t="shared" si="10"/>
@@ -12771,7 +12773,7 @@
       </c>
       <c r="H97" s="6">
         <f t="shared" si="11"/>
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="I97" s="1" t="str">
         <f>VLOOKUP(J97,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>

--- a/files/p03.xlsx
+++ b/files/p03.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="p03-reg" sheetId="9" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="93">
   <si>
     <t>pot</t>
   </si>
@@ -298,6 +298,15 @@
   <si>
     <t>participant</t>
   </si>
+  <si>
+    <t>food_pasta</t>
+  </si>
+  <si>
+    <t>food_meat</t>
+  </si>
+  <si>
+    <t>food_bolognese</t>
+  </si>
 </sst>
 </file>
 
@@ -823,6 +832,15 @@
           </cell>
         </row>
         <row r="23">
+          <cell r="A23" t="str">
+            <v>food_pasta</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>food</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>pasta</v>
+          </cell>
           <cell r="F23" t="str">
             <v>garlic_power</v>
           </cell>
@@ -834,6 +852,15 @@
           </cell>
         </row>
         <row r="24">
+          <cell r="A24" t="str">
+            <v>food_meat</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>food</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>meat</v>
+          </cell>
           <cell r="F24" t="str">
             <v>kitchenRoll</v>
           </cell>
@@ -842,6 +869,15 @@
           </cell>
         </row>
         <row r="25">
+          <cell r="A25" t="str">
+            <v>food_bolognese</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>food</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>bolognese</v>
+          </cell>
           <cell r="F25" t="str">
             <v>knife</v>
           </cell>
@@ -4107,12 +4143,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI220"/>
+  <dimension ref="A1:AI248"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F30" sqref="F30"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4207,19 +4243,19 @@
         <v>3.0092592592592595E-4</v>
       </c>
       <c r="E2" s="4">
-        <f t="shared" ref="E2:E33" si="0">D2-C2</f>
+        <f t="shared" ref="E2:E65" si="0">D2-C2</f>
         <v>2.0833333333333337E-4</v>
       </c>
       <c r="F2" s="6">
-        <f t="shared" ref="F2:F33" si="1">HOUR(E2) *3600 + MINUTE(E2) * 60 + SECOND(E2)</f>
+        <f t="shared" ref="F2:F36" si="1">HOUR(E2) *3600 + MINUTE(E2) * 60 + SECOND(E2)</f>
         <v>18</v>
       </c>
       <c r="G2" s="6">
-        <f t="shared" ref="G2:G33" si="2">HOUR(C2) *3600 + MINUTE(C2) * 60 + SECOND(C2)</f>
+        <f t="shared" ref="G2:G36" si="2">HOUR(C2) *3600 + MINUTE(C2) * 60 + SECOND(C2)</f>
         <v>8</v>
       </c>
       <c r="H2" s="6">
-        <f t="shared" ref="H2:H33" si="3">HOUR(D2) *3600 + MINUTE(D2) * 60 + SECOND(D2)</f>
+        <f t="shared" ref="H2:H36" si="3">HOUR(D2) *3600 + MINUTE(D2) * 60 + SECOND(D2)</f>
         <v>26</v>
       </c>
       <c r="I2" s="1" t="str">
@@ -4227,11 +4263,11 @@
         <v>u</v>
       </c>
       <c r="J2" s="1" t="str">
-        <f>VLOOKUP(B2,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
+        <f>VLOOKUP(B2,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
         <v>pot</v>
       </c>
       <c r="K2" s="1">
-        <f>VLOOKUP(B2,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B2,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L2" t="s">
@@ -4259,15 +4295,15 @@
         <v>1.3888888888888886E-4</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F3:F66" si="4">HOUR(E3) *3600 + MINUTE(E3) * 60 + SECOND(E3)</f>
         <v>12</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G3:G66" si="5">HOUR(C3) *3600 + MINUTE(C3) * 60 + SECOND(C3)</f>
         <v>10</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H3:H66" si="6">HOUR(D3) *3600 + MINUTE(D3) * 60 + SECOND(D3)</f>
         <v>22</v>
       </c>
       <c r="I3" s="1" t="str">
@@ -4275,11 +4311,11 @@
         <v>e</v>
       </c>
       <c r="J3" s="1" t="str">
-        <f>VLOOKUP(B3,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
+        <f>VLOOKUP(B3,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
         <v>faucet</v>
       </c>
       <c r="K3" s="1">
-        <f>VLOOKUP(B3,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B3,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M3" s="1">
@@ -4304,15 +4340,15 @@
         <v>1.1574074074074072E-4</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G4" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="I4" s="1" t="str">
@@ -4320,11 +4356,11 @@
         <v>c</v>
       </c>
       <c r="J4" s="1" t="str">
-        <f>VLOOKUP(B4,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
+        <f>VLOOKUP(B4,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
         <v>water</v>
       </c>
       <c r="K4" s="1">
-        <f>VLOOKUP(B4,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B4,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M4" s="1">
@@ -4349,15 +4385,15 @@
         <v>1.4027777777777776E-2</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1212</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1238</v>
       </c>
       <c r="I5" s="1" t="str">
@@ -4365,11 +4401,11 @@
         <v>e</v>
       </c>
       <c r="J5" s="1" t="str">
-        <f>VLOOKUP(B5,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
+        <f>VLOOKUP(B5,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
         <v>stove</v>
       </c>
       <c r="K5" s="1">
-        <f>VLOOKUP(B5,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B5,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -4397,15 +4433,15 @@
         <v>6.9444444444444458E-5</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="I6" s="1" t="str">
@@ -4413,11 +4449,11 @@
         <v>u</v>
       </c>
       <c r="J6" s="1" t="str">
-        <f>VLOOKUP(B6,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
+        <f>VLOOKUP(B6,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
         <v>phone</v>
       </c>
       <c r="K6" s="1">
-        <f>VLOOKUP(B6,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B6,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M6" s="1">
@@ -4442,15 +4478,15 @@
         <v>2.3148148148148117E-5</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G7" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="I7" s="1" t="str">
@@ -4458,11 +4494,11 @@
         <v>e</v>
       </c>
       <c r="J7" s="1" t="str">
-        <f>VLOOKUP(B7,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
+        <f>VLOOKUP(B7,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
         <v>stove</v>
       </c>
       <c r="K7" s="1">
-        <f>VLOOKUP(B7,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B7,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -4490,15 +4526,15 @@
         <v>1.3888888888888881E-4</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="I8" s="1" t="str">
@@ -4506,11 +4542,11 @@
         <v>e</v>
       </c>
       <c r="J8" s="1" t="str">
-        <f>VLOOKUP(B8,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
+        <f>VLOOKUP(B8,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
         <v>fridge</v>
       </c>
       <c r="K8" s="1">
-        <f>VLOOKUP(B8,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B8,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M8" s="1">
@@ -4535,15 +4571,15 @@
         <v>6.9444444444444458E-5</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="I9" s="1" t="str">
@@ -4551,11 +4587,11 @@
         <v>c</v>
       </c>
       <c r="J9" s="1" t="str">
-        <f>VLOOKUP(B9,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
+        <f>VLOOKUP(B9,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
         <v>mincedMeat</v>
       </c>
       <c r="K9" s="1">
-        <f>VLOOKUP(B9,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B9,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M9" s="1">
@@ -4580,15 +4616,15 @@
         <v>1.3888888888888881E-4</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>74</v>
       </c>
       <c r="I10" s="1" t="str">
@@ -4596,11 +4632,11 @@
         <v>u</v>
       </c>
       <c r="J10" s="1" t="str">
-        <f>VLOOKUP(B10,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
+        <f>VLOOKUP(B10,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
         <v>pan</v>
       </c>
       <c r="K10" s="1">
-        <f>VLOOKUP(B10,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B10,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -4628,15 +4664,15 @@
         <v>6.9444444444444458E-5</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>182</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>188</v>
       </c>
       <c r="I11" s="1" t="str">
@@ -4644,11 +4680,11 @@
         <v>c</v>
       </c>
       <c r="J11" s="1" t="str">
-        <f>VLOOKUP(B11,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
+        <f>VLOOKUP(B11,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
         <v>salt</v>
       </c>
       <c r="K11" s="1">
-        <f>VLOOKUP(B11,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B11,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -4663,44 +4699,41 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C12" s="4">
-        <v>2.7083333333333334E-3</v>
+        <v>2.1296296296296298E-3</v>
       </c>
       <c r="D12" s="4">
-        <v>2.7777777777777779E-3</v>
+        <v>2.1759259259259258E-3</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>6.9444444444444458E-5</v>
+        <v>4.6296296296296016E-5</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="2"/>
-        <v>234</v>
+        <f t="shared" si="5"/>
+        <v>184</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="3"/>
-        <v>240</v>
+        <f t="shared" si="6"/>
+        <v>188</v>
       </c>
       <c r="I12" s="1" t="str">
         <f>VLOOKUP(J12,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>e</v>
+        <v>c</v>
       </c>
       <c r="J12" s="1" t="str">
-        <f>VLOOKUP(B12,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>cpB</v>
-      </c>
-      <c r="K12" s="1" t="str">
-        <f>VLOOKUP(B12,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>a_st_2</v>
-      </c>
-      <c r="M12" s="1">
-        <v>1</v>
+        <f>VLOOKUP(B12,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>water</v>
+      </c>
+      <c r="K12" s="1">
+        <f>VLOOKUP(B12,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
@@ -4708,41 +4741,41 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C13" s="4">
-        <v>2.7546296296296294E-3</v>
+        <v>2.7083333333333334E-3</v>
       </c>
       <c r="D13" s="4">
         <v>2.7777777777777779E-3</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
-        <v>2.3148148148148442E-5</v>
+        <v>6.9444444444444458E-5</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="2"/>
-        <v>238</v>
+        <f t="shared" si="5"/>
+        <v>234</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>240</v>
       </c>
       <c r="I13" s="1" t="str">
         <f>VLOOKUP(J13,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>c</v>
+        <v>e</v>
       </c>
       <c r="J13" s="1" t="str">
-        <f>VLOOKUP(B13,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>spaghetti</v>
-      </c>
-      <c r="K13" s="1">
-        <f>VLOOKUP(B13,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(B13,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>cpB</v>
+      </c>
+      <c r="K13" s="1" t="str">
+        <f>VLOOKUP(B13,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>a_st_2</v>
       </c>
       <c r="M13" s="1">
         <v>1</v>
@@ -4753,40 +4786,40 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C14" s="4">
-        <v>2.8240740740740739E-3</v>
+        <v>2.7546296296296294E-3</v>
       </c>
       <c r="D14" s="4">
-        <v>2.8472222222222219E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="0"/>
-        <v>2.3148148148148008E-5</v>
+        <v>2.3148148148148442E-5</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G14" s="6">
-        <f t="shared" si="2"/>
-        <v>244</v>
+        <f t="shared" si="5"/>
+        <v>238</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="3"/>
-        <v>246</v>
+        <f t="shared" si="6"/>
+        <v>240</v>
       </c>
       <c r="I14" s="1" t="str">
         <f>VLOOKUP(J14,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J14" s="1" t="str">
-        <f>VLOOKUP(B14,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>phone</v>
+        <f>VLOOKUP(B14,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>spaghetti</v>
       </c>
       <c r="K14" s="1">
-        <f>VLOOKUP(B14,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B14,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M14" s="1">
@@ -4801,37 +4834,37 @@
         <v>20</v>
       </c>
       <c r="C15" s="4">
-        <v>2.9398148148148148E-3</v>
+        <v>2.8240740740740739E-3</v>
       </c>
       <c r="D15" s="4">
-        <v>3.0787037037037037E-3</v>
+        <v>2.8472222222222219E-3</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="0"/>
-        <v>1.3888888888888892E-4</v>
+        <v>2.3148148148148008E-5</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="2"/>
-        <v>254</v>
+        <f t="shared" si="5"/>
+        <v>244</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="3"/>
-        <v>266</v>
+        <f t="shared" si="6"/>
+        <v>246</v>
       </c>
       <c r="I15" s="1" t="str">
         <f>VLOOKUP(J15,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J15" s="1" t="str">
-        <f>VLOOKUP(B15,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
+        <f>VLOOKUP(B15,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
         <v>phone</v>
       </c>
       <c r="K15" s="1">
-        <f>VLOOKUP(B15,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B15,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M15" s="1">
@@ -4846,37 +4879,37 @@
         <v>20</v>
       </c>
       <c r="C16" s="4">
-        <v>3.3101851851851851E-3</v>
+        <v>2.9398148148148148E-3</v>
       </c>
       <c r="D16" s="4">
-        <v>3.472222222222222E-3</v>
+        <v>3.0787037037037037E-3</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="0"/>
-        <v>1.6203703703703692E-4</v>
+        <v>1.3888888888888892E-4</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" si="2"/>
-        <v>286</v>
+        <f t="shared" si="5"/>
+        <v>254</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="3"/>
-        <v>300</v>
+        <f t="shared" si="6"/>
+        <v>266</v>
       </c>
       <c r="I16" s="1" t="str">
         <f>VLOOKUP(J16,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J16" s="1" t="str">
-        <f>VLOOKUP(B16,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
+        <f>VLOOKUP(B16,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
         <v>phone</v>
       </c>
       <c r="K16" s="1">
-        <f>VLOOKUP(B16,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B16,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M16" s="1">
@@ -4888,40 +4921,40 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C17" s="4">
-        <v>3.4953703703703705E-3</v>
+        <v>3.3101851851851851E-3</v>
       </c>
       <c r="D17" s="4">
-        <v>3.5416666666666665E-3</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" si="0"/>
-        <v>4.6296296296296016E-5</v>
+        <v>1.6203703703703692E-4</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="2"/>
-        <v>302</v>
+        <f t="shared" si="5"/>
+        <v>286</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="3"/>
-        <v>306</v>
+        <f t="shared" si="6"/>
+        <v>300</v>
       </c>
       <c r="I17" s="1" t="str">
         <f>VLOOKUP(J17,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J17" s="1" t="str">
-        <f>VLOOKUP(B17,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>pot</v>
+        <f>VLOOKUP(B17,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>phone</v>
       </c>
       <c r="K17" s="1">
-        <f>VLOOKUP(B17,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B17,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M17" s="1">
@@ -4933,28 +4966,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C18" s="4">
-        <v>3.5185185185185185E-3</v>
+        <v>3.4953703703703705E-3</v>
       </c>
       <c r="D18" s="4">
         <v>3.5416666666666665E-3</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" si="0"/>
-        <v>2.3148148148148008E-5</v>
+        <v>4.6296296296296016E-5</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="2"/>
-        <v>304</v>
+        <f t="shared" si="5"/>
+        <v>302</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>306</v>
       </c>
       <c r="I18" s="1" t="str">
@@ -4962,11 +4995,11 @@
         <v>u</v>
       </c>
       <c r="J18" s="1" t="str">
-        <f>VLOOKUP(B18,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>pan</v>
+        <f>VLOOKUP(B18,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>pot</v>
       </c>
       <c r="K18" s="1">
-        <f>VLOOKUP(B18,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B18,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M18" s="1">
@@ -4978,44 +5011,41 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C19" s="4">
-        <v>5.0694444444444441E-3</v>
+        <v>3.5185185185185185E-3</v>
       </c>
       <c r="D19" s="4">
-        <v>5.0925925925925921E-3</v>
+        <v>3.5416666666666665E-3</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="0"/>
         <v>2.3148148148148008E-5</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="2"/>
-        <v>438</v>
+        <f t="shared" si="5"/>
+        <v>304</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="3"/>
-        <v>440</v>
+        <f t="shared" si="6"/>
+        <v>306</v>
       </c>
       <c r="I19" s="1" t="str">
         <f>VLOOKUP(J19,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J19" s="1" t="str">
-        <f>VLOOKUP(B19,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>phone</v>
+        <f>VLOOKUP(B19,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>pan</v>
       </c>
       <c r="K19" s="1">
-        <f>VLOOKUP(B19,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>74</v>
+        <f>VLOOKUP(B19,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="M19" s="1">
         <v>1</v>
@@ -5026,41 +5056,44 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C20" s="4">
-        <v>5.185185185185185E-3</v>
+        <v>5.0694444444444441E-3</v>
       </c>
       <c r="D20" s="4">
-        <v>5.208333333333333E-3</v>
+        <v>5.0925925925925921E-3</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="0"/>
         <v>2.3148148148148008E-5</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="2"/>
-        <v>448</v>
+        <f t="shared" si="5"/>
+        <v>438</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="3"/>
-        <v>450</v>
+        <f t="shared" si="6"/>
+        <v>440</v>
       </c>
       <c r="I20" s="1" t="str">
         <f>VLOOKUP(J20,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J20" s="1" t="str">
-        <f>VLOOKUP(B20,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>pan</v>
+        <f>VLOOKUP(B20,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>phone</v>
       </c>
       <c r="K20" s="1">
-        <f>VLOOKUP(B20,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(B20,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="M20" s="1">
         <v>1</v>
@@ -5071,7 +5104,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C21" s="4">
         <v>5.185185185185185E-3</v>
@@ -5084,15 +5117,15 @@
         <v>2.3148148148148008E-5</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>448</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>450</v>
       </c>
       <c r="I21" s="1" t="str">
@@ -5100,11 +5133,11 @@
         <v>u</v>
       </c>
       <c r="J21" s="1" t="str">
-        <f>VLOOKUP(B21,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>pot</v>
+        <f>VLOOKUP(B21,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>pan</v>
       </c>
       <c r="K21" s="1">
-        <f>VLOOKUP(B21,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B21,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M21" s="1">
@@ -5116,44 +5149,41 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="4">
-        <v>5.9027777777777776E-3</v>
+        <v>5.185185185185185E-3</v>
       </c>
       <c r="D22" s="4">
-        <v>6.0416666666666665E-3</v>
+        <v>5.208333333333333E-3</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="0"/>
-        <v>1.3888888888888892E-4</v>
+        <v>2.3148148148148008E-5</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="2"/>
-        <v>510</v>
+        <f t="shared" si="5"/>
+        <v>448</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="3"/>
-        <v>522</v>
+        <f t="shared" si="6"/>
+        <v>450</v>
       </c>
       <c r="I22" s="1" t="str">
         <f>VLOOKUP(J22,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>c</v>
+        <v>u</v>
       </c>
       <c r="J22" s="1" t="str">
-        <f>VLOOKUP(B22,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>spaghetti</v>
+        <f>VLOOKUP(B22,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>pot</v>
       </c>
       <c r="K22" s="1">
-        <f>VLOOKUP(B22,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>75</v>
+        <f>VLOOKUP(B22,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="M22" s="1">
         <v>1</v>
@@ -5164,44 +5194,44 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C23" s="4">
-        <v>6.4351851851851861E-3</v>
+        <v>5.9027777777777776E-3</v>
       </c>
       <c r="D23" s="4">
-        <v>6.4583333333333333E-3</v>
+        <v>6.0416666666666665E-3</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="0"/>
-        <v>2.3148148148147141E-5</v>
+        <v>1.3888888888888892E-4</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="2"/>
-        <v>556</v>
+        <f t="shared" si="5"/>
+        <v>510</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="3"/>
-        <v>558</v>
+        <f t="shared" si="6"/>
+        <v>522</v>
       </c>
       <c r="I23" s="1" t="str">
         <f>VLOOKUP(J23,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J23" s="1" t="str">
-        <f>VLOOKUP(B23,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>pan</v>
+        <f>VLOOKUP(B23,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>spaghetti</v>
       </c>
       <c r="K23" s="1">
-        <f>VLOOKUP(B23,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B23,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M23" s="1">
         <v>1</v>
@@ -5212,41 +5242,44 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C24" s="4">
+        <v>6.4351851851851861E-3</v>
+      </c>
+      <c r="D24" s="4">
         <v>6.4583333333333333E-3</v>
-      </c>
-      <c r="D24" s="4">
-        <v>6.4814814814814813E-3</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="0"/>
-        <v>2.3148148148148008E-5</v>
+        <v>2.3148148148147141E-5</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>556</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="6"/>
         <v>558</v>
-      </c>
-      <c r="H24" s="6">
-        <f t="shared" si="3"/>
-        <v>560</v>
       </c>
       <c r="I24" s="1" t="str">
         <f>VLOOKUP(J24,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J24" s="1" t="str">
-        <f>VLOOKUP(B24,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>pot</v>
+        <f>VLOOKUP(B24,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>pan</v>
       </c>
       <c r="K24" s="1">
-        <f>VLOOKUP(B24,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(B24,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="M24" s="1">
         <v>1</v>
@@ -5257,40 +5290,40 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="4">
-        <v>6.6435185185185182E-3</v>
+        <v>6.4583333333333333E-3</v>
       </c>
       <c r="D25" s="4">
-        <v>6.851851851851852E-3</v>
+        <v>6.4814814814814813E-3</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="0"/>
-        <v>2.0833333333333381E-4</v>
+        <v>2.3148148148148008E-5</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="2"/>
-        <v>574</v>
+        <f t="shared" si="5"/>
+        <v>558</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="3"/>
-        <v>592</v>
+        <f t="shared" si="6"/>
+        <v>560</v>
       </c>
       <c r="I25" s="1" t="str">
         <f>VLOOKUP(J25,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>c</v>
+        <v>u</v>
       </c>
       <c r="J25" s="1" t="str">
-        <f>VLOOKUP(B25,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>spaghetti</v>
+        <f>VLOOKUP(B25,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>pot</v>
       </c>
       <c r="K25" s="1">
-        <f>VLOOKUP(B25,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B25,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M25" s="1">
@@ -5302,41 +5335,41 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C26" s="4">
-        <v>6.782407407407408E-3</v>
+        <v>6.6435185185185182E-3</v>
       </c>
       <c r="D26" s="4">
-        <v>6.8981481481481489E-3</v>
+        <v>6.851851851851852E-3</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="0"/>
-        <v>1.1574074074074091E-4</v>
+        <v>2.0833333333333381E-4</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>18</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="2"/>
-        <v>586</v>
+        <f t="shared" si="5"/>
+        <v>574</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="3"/>
-        <v>596</v>
+        <f t="shared" si="6"/>
+        <v>592</v>
       </c>
       <c r="I26" s="1" t="str">
         <f>VLOOKUP(J26,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>e</v>
+        <v>c</v>
       </c>
       <c r="J26" s="1" t="str">
-        <f>VLOOKUP(B26,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>cpB</v>
-      </c>
-      <c r="K26" s="1" t="str">
-        <f>VLOOKUP(B26,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>a_st_2</v>
+        <f>VLOOKUP(B26,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>spaghetti</v>
+      </c>
+      <c r="K26" s="1">
+        <f>VLOOKUP(B26,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="M26" s="1">
         <v>1</v>
@@ -5347,47 +5380,41 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="C27" s="4">
-        <v>6.9444444444444441E-3</v>
+        <v>6.6666666666666671E-3</v>
       </c>
       <c r="D27" s="4">
-        <v>7.083333333333333E-3</v>
+        <v>6.7361111111111103E-3</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="0"/>
-        <v>1.3888888888888892E-4</v>
+        <v>6.9444444444443157E-5</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="5"/>
+        <v>576</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="3"/>
-        <v>612</v>
+        <f t="shared" si="6"/>
+        <v>582</v>
       </c>
       <c r="I27" s="1" t="str">
         <f>VLOOKUP(J27,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J27" s="1" t="str">
-        <f>VLOOKUP(B27,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>fork</v>
-      </c>
-      <c r="K27" s="1">
-        <f>VLOOKUP(B27,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M27" s="1">
-        <v>1</v>
+        <f>VLOOKUP(B27,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>food</v>
+      </c>
+      <c r="K27" s="1" t="str">
+        <f>VLOOKUP(B27,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>pasta</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -5395,44 +5422,41 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C28" s="4">
-        <v>6.9444444444444441E-3</v>
+        <v>6.782407407407408E-3</v>
       </c>
       <c r="D28" s="4">
-        <v>7.083333333333333E-3</v>
+        <v>6.8981481481481489E-3</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="0"/>
-        <v>1.3888888888888892E-4</v>
+        <v>1.1574074074074091E-4</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="5"/>
+        <v>586</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="3"/>
-        <v>612</v>
+        <f t="shared" si="6"/>
+        <v>596</v>
       </c>
       <c r="I28" s="1" t="str">
         <f>VLOOKUP(J28,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>u</v>
+        <v>e</v>
       </c>
       <c r="J28" s="1" t="str">
-        <f>VLOOKUP(B28,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>cookingSpoon</v>
-      </c>
-      <c r="K28" s="1">
-        <f>VLOOKUP(B28,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>77</v>
+        <f>VLOOKUP(B28,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>cpB</v>
+      </c>
+      <c r="K28" s="1" t="str">
+        <f>VLOOKUP(B28,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>a_st_2</v>
       </c>
       <c r="M28" s="1">
         <v>1</v>
@@ -5443,44 +5467,44 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C29" s="4">
-        <v>7.1296296296296307E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="D29" s="4">
-        <v>7.1527777777777787E-3</v>
+        <v>7.083333333333333E-3</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="0"/>
-        <v>2.3148148148148008E-5</v>
+        <v>1.3888888888888892E-4</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" si="2"/>
-        <v>616</v>
+        <f t="shared" si="5"/>
+        <v>600</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="3"/>
-        <v>618</v>
+        <f t="shared" si="6"/>
+        <v>612</v>
       </c>
       <c r="I29" s="1" t="str">
         <f>VLOOKUP(J29,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J29" s="1" t="str">
-        <f>VLOOKUP(B29,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>pan</v>
+        <f>VLOOKUP(B29,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>fork</v>
       </c>
       <c r="K29" s="1">
-        <f>VLOOKUP(B29,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B29,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="M29" s="1">
         <v>1</v>
@@ -5491,41 +5515,44 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C30" s="4">
-        <v>7.1759259259259259E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="D30" s="4">
-        <v>7.3379629629629628E-3</v>
+        <v>7.083333333333333E-3</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="0"/>
-        <v>1.6203703703703692E-4</v>
+        <v>1.3888888888888892E-4</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" si="2"/>
-        <v>620</v>
+        <f t="shared" si="5"/>
+        <v>600</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="3"/>
-        <v>634</v>
+        <f t="shared" si="6"/>
+        <v>612</v>
       </c>
       <c r="I30" s="1" t="str">
         <f>VLOOKUP(J30,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J30" s="1" t="str">
-        <f>VLOOKUP(B30,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>phone</v>
+        <f>VLOOKUP(B30,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>cookingSpoon</v>
       </c>
       <c r="K30" s="1">
-        <f>VLOOKUP(B30,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(B30,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="M30" s="1">
         <v>1</v>
@@ -5536,47 +5563,41 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="C31" s="4">
-        <v>7.3379629629629628E-3</v>
+        <v>7.0601851851851841E-3</v>
       </c>
       <c r="D31" s="4">
-        <v>7.4768518518518526E-3</v>
+        <v>7.083333333333333E-3</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" si="0"/>
-        <v>1.3888888888888978E-4</v>
+        <v>2.3148148148148875E-5</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" si="2"/>
-        <v>634</v>
+        <f t="shared" si="5"/>
+        <v>610</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="3"/>
-        <v>646</v>
+        <f t="shared" si="6"/>
+        <v>612</v>
       </c>
       <c r="I31" s="1" t="str">
         <f>VLOOKUP(J31,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J31" s="1" t="str">
-        <f>VLOOKUP(B31,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>pan</v>
-      </c>
-      <c r="K31" s="1">
-        <f>VLOOKUP(B31,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M31" s="1">
-        <v>1</v>
+        <f>VLOOKUP(B31,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>food</v>
+      </c>
+      <c r="K31" s="1" t="str">
+        <f>VLOOKUP(B31,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>pasta</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -5584,41 +5605,44 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C32" s="4">
-        <v>7.5231481481481477E-3</v>
+        <v>7.1296296296296307E-3</v>
       </c>
       <c r="D32" s="4">
-        <v>7.6620370370370366E-3</v>
+        <v>7.1527777777777787E-3</v>
       </c>
       <c r="E32" s="4">
         <f t="shared" si="0"/>
-        <v>1.3888888888888892E-4</v>
+        <v>2.3148148148148008E-5</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="2"/>
-        <v>650</v>
+        <f t="shared" si="5"/>
+        <v>616</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" si="3"/>
-        <v>662</v>
+        <f t="shared" si="6"/>
+        <v>618</v>
       </c>
       <c r="I32" s="1" t="str">
         <f>VLOOKUP(J32,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>c</v>
+        <v>u</v>
       </c>
       <c r="J32" s="1" t="str">
-        <f>VLOOKUP(B32,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>oil</v>
-      </c>
-      <c r="K32" s="1" t="str">
-        <f>VLOOKUP(B32,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>olive</v>
+        <f>VLOOKUP(B32,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>pan</v>
+      </c>
+      <c r="K32" s="1">
+        <f>VLOOKUP(B32,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="M32" s="1">
         <v>1</v>
@@ -5629,40 +5653,40 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C33" s="4">
-        <v>7.6620370370370366E-3</v>
+        <v>7.1759259259259259E-3</v>
       </c>
       <c r="D33" s="4">
-        <v>7.7314814814814815E-3</v>
+        <v>7.3379629629629628E-3</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" si="0"/>
-        <v>6.9444444444444892E-5</v>
+        <v>1.6203703703703692E-4</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" si="2"/>
-        <v>662</v>
+        <f t="shared" si="5"/>
+        <v>620</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="3"/>
-        <v>668</v>
+        <f t="shared" si="6"/>
+        <v>634</v>
       </c>
       <c r="I33" s="1" t="str">
         <f>VLOOKUP(J33,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J33" s="1" t="str">
-        <f>VLOOKUP(B33,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>pan</v>
+        <f>VLOOKUP(B33,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>phone</v>
       </c>
       <c r="K33" s="1">
-        <f>VLOOKUP(B33,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B33,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M33" s="1">
@@ -5674,41 +5698,44 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C34" s="4">
-        <v>7.7546296296296287E-3</v>
+        <v>7.3379629629629628E-3</v>
       </c>
       <c r="D34" s="4">
-        <v>7.8240740740740753E-3</v>
+        <v>7.4768518518518526E-3</v>
       </c>
       <c r="E34" s="4">
-        <f t="shared" ref="E34:E65" si="4">D34-C34</f>
-        <v>6.9444444444446626E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.3888888888888978E-4</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" ref="F34:F65" si="5">HOUR(E34) *3600 + MINUTE(E34) * 60 + SECOND(E34)</f>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" ref="G34:G65" si="6">HOUR(C34) *3600 + MINUTE(C34) * 60 + SECOND(C34)</f>
-        <v>670</v>
+        <f t="shared" si="5"/>
+        <v>634</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" ref="H34:H65" si="7">HOUR(D34) *3600 + MINUTE(D34) * 60 + SECOND(D34)</f>
-        <v>676</v>
+        <f t="shared" si="6"/>
+        <v>646</v>
       </c>
       <c r="I34" s="1" t="str">
         <f>VLOOKUP(J34,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J34" s="1" t="str">
-        <f>VLOOKUP(B34,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>fork</v>
+        <f>VLOOKUP(B34,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>pan</v>
       </c>
       <c r="K34" s="1">
-        <f>VLOOKUP(B34,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(B34,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="M34" s="1">
         <v>1</v>
@@ -5719,41 +5746,41 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C35" s="4">
-        <v>7.8009259259259256E-3</v>
+        <v>7.5231481481481477E-3</v>
       </c>
       <c r="D35" s="4">
-        <v>8.1481481481481474E-3</v>
+        <v>7.6620370370370366E-3</v>
       </c>
       <c r="E35" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888892E-4</v>
+      </c>
+      <c r="F35" s="6">
         <f t="shared" si="4"/>
-        <v>3.4722222222222186E-4</v>
-      </c>
-      <c r="F35" s="6">
+        <v>12</v>
+      </c>
+      <c r="G35" s="6">
         <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="G35" s="6">
+        <v>650</v>
+      </c>
+      <c r="H35" s="6">
         <f t="shared" si="6"/>
-        <v>674</v>
-      </c>
-      <c r="H35" s="6">
-        <f t="shared" si="7"/>
-        <v>704</v>
+        <v>662</v>
       </c>
       <c r="I35" s="1" t="str">
         <f>VLOOKUP(J35,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>c</v>
       </c>
       <c r="J35" s="1" t="str">
-        <f>VLOOKUP(B35,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>mincedMeat</v>
-      </c>
-      <c r="K35" s="1">
-        <f>VLOOKUP(B35,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(B35,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>oil</v>
+      </c>
+      <c r="K35" s="1" t="str">
+        <f>VLOOKUP(B35,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>olive</v>
       </c>
       <c r="M35" s="1">
         <v>1</v>
@@ -5764,40 +5791,40 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C36" s="4">
-        <v>7.8935185185185185E-3</v>
+        <v>7.6620370370370366E-3</v>
       </c>
       <c r="D36" s="4">
-        <v>8.1249999999999985E-3</v>
+        <v>7.7314814814814815E-3</v>
       </c>
       <c r="E36" s="4">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444892E-5</v>
+      </c>
+      <c r="F36" s="6">
         <f t="shared" si="4"/>
-        <v>2.3148148148148008E-4</v>
-      </c>
-      <c r="F36" s="6">
+        <v>6</v>
+      </c>
+      <c r="G36" s="6">
         <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="G36" s="6">
+        <v>662</v>
+      </c>
+      <c r="H36" s="6">
         <f t="shared" si="6"/>
-        <v>682</v>
-      </c>
-      <c r="H36" s="6">
-        <f t="shared" si="7"/>
-        <v>702</v>
+        <v>668</v>
       </c>
       <c r="I36" s="1" t="str">
         <f>VLOOKUP(J36,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J36" s="1" t="str">
-        <f>VLOOKUP(B36,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>cookingSpoon</v>
+        <f>VLOOKUP(B36,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>pan</v>
       </c>
       <c r="K36" s="1">
-        <f>VLOOKUP(B36,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B36,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M36" s="1">
@@ -5809,40 +5836,40 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C37" s="4">
-        <v>8.1481481481481474E-3</v>
+        <v>7.7546296296296287E-3</v>
       </c>
       <c r="D37" s="4">
-        <v>8.9814814814814809E-3</v>
+        <v>7.8240740740740753E-3</v>
       </c>
       <c r="E37" s="4">
+        <f t="shared" si="0"/>
+        <v>6.9444444444446626E-5</v>
+      </c>
+      <c r="F37" s="6">
         <f t="shared" si="4"/>
-        <v>8.333333333333335E-4</v>
-      </c>
-      <c r="F37" s="6">
+        <v>6</v>
+      </c>
+      <c r="G37" s="6">
         <f t="shared" si="5"/>
-        <v>72</v>
-      </c>
-      <c r="G37" s="6">
+        <v>670</v>
+      </c>
+      <c r="H37" s="6">
         <f t="shared" si="6"/>
-        <v>704</v>
-      </c>
-      <c r="H37" s="6">
-        <f t="shared" si="7"/>
-        <v>776</v>
+        <v>676</v>
       </c>
       <c r="I37" s="1" t="str">
         <f>VLOOKUP(J37,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>c</v>
+        <v>u</v>
       </c>
       <c r="J37" s="1" t="str">
-        <f>VLOOKUP(B37,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>clingFilm</v>
+        <f>VLOOKUP(B37,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>fork</v>
       </c>
       <c r="K37" s="1">
-        <f>VLOOKUP(B37,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B37,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M37" s="1">
@@ -5857,37 +5884,37 @@
         <v>19</v>
       </c>
       <c r="C38" s="4">
-        <v>8.9351851851851866E-3</v>
+        <v>7.8009259259259256E-3</v>
       </c>
       <c r="D38" s="4">
-        <v>9.0046296296296298E-3</v>
+        <v>8.1481481481481474E-3</v>
       </c>
       <c r="E38" s="4">
+        <f t="shared" si="0"/>
+        <v>3.4722222222222186E-4</v>
+      </c>
+      <c r="F38" s="6">
         <f t="shared" si="4"/>
-        <v>6.9444444444443157E-5</v>
-      </c>
-      <c r="F38" s="6">
+        <v>30</v>
+      </c>
+      <c r="G38" s="6">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="G38" s="6">
+        <v>674</v>
+      </c>
+      <c r="H38" s="6">
         <f t="shared" si="6"/>
-        <v>772</v>
-      </c>
-      <c r="H38" s="6">
-        <f t="shared" si="7"/>
-        <v>778</v>
+        <v>704</v>
       </c>
       <c r="I38" s="1" t="str">
         <f>VLOOKUP(J38,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>c</v>
       </c>
       <c r="J38" s="1" t="str">
-        <f>VLOOKUP(B38,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
+        <f>VLOOKUP(B38,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
         <v>mincedMeat</v>
       </c>
       <c r="K38" s="1">
-        <f>VLOOKUP(B38,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B38,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M38" s="1">
@@ -5899,44 +5926,41 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="C39" s="4">
-        <v>8.9814814814814809E-3</v>
+        <v>8.0787037037037043E-3</v>
       </c>
       <c r="D39" s="4">
-        <v>9.0277777777777787E-3</v>
+        <v>8.1249999999999985E-3</v>
       </c>
       <c r="E39" s="4">
+        <f t="shared" si="0"/>
+        <v>4.6296296296294281E-5</v>
+      </c>
+      <c r="F39" s="6">
         <f t="shared" si="4"/>
-        <v>4.6296296296297751E-5</v>
-      </c>
-      <c r="F39" s="6">
+        <v>4</v>
+      </c>
+      <c r="G39" s="6">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="G39" s="6">
+        <v>698</v>
+      </c>
+      <c r="H39" s="6">
         <f t="shared" si="6"/>
-        <v>776</v>
-      </c>
-      <c r="H39" s="6">
-        <f t="shared" si="7"/>
-        <v>780</v>
+        <v>702</v>
       </c>
       <c r="I39" s="1" t="str">
         <f>VLOOKUP(J39,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>e</v>
+        <v>c</v>
       </c>
       <c r="J39" s="1" t="str">
-        <f>VLOOKUP(B39,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>fridge</v>
-      </c>
-      <c r="K39" s="1">
-        <f>VLOOKUP(B39,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M39" s="1">
-        <v>1</v>
+        <f>VLOOKUP(B39,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>food</v>
+      </c>
+      <c r="K39" s="1" t="str">
+        <f>VLOOKUP(B39,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>meat</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -5944,40 +5968,40 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C40" s="4">
-        <v>9.0740740740740729E-3</v>
+        <v>7.8935185185185185E-3</v>
       </c>
       <c r="D40" s="4">
-        <v>9.1666666666666667E-3</v>
+        <v>8.1249999999999985E-3</v>
       </c>
       <c r="E40" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3148148148148008E-4</v>
+      </c>
+      <c r="F40" s="6">
         <f t="shared" si="4"/>
-        <v>9.2592592592593767E-5</v>
-      </c>
-      <c r="F40" s="6">
+        <v>20</v>
+      </c>
+      <c r="G40" s="6">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="G40" s="6">
+        <v>682</v>
+      </c>
+      <c r="H40" s="6">
         <f t="shared" si="6"/>
-        <v>784</v>
-      </c>
-      <c r="H40" s="6">
-        <f t="shared" si="7"/>
-        <v>792</v>
+        <v>702</v>
       </c>
       <c r="I40" s="1" t="str">
         <f>VLOOKUP(J40,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J40" s="1" t="str">
-        <f>VLOOKUP(B40,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>pan</v>
+        <f>VLOOKUP(B40,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>cookingSpoon</v>
       </c>
       <c r="K40" s="1">
-        <f>VLOOKUP(B40,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B40,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M40" s="1">
@@ -5989,40 +6013,40 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" s="4">
-        <v>9.0740740740740729E-3</v>
+        <v>8.1481481481481474E-3</v>
       </c>
       <c r="D41" s="4">
-        <v>9.1666666666666667E-3</v>
+        <v>8.9814814814814809E-3</v>
       </c>
       <c r="E41" s="4">
+        <f t="shared" si="0"/>
+        <v>8.333333333333335E-4</v>
+      </c>
+      <c r="F41" s="6">
         <f t="shared" si="4"/>
-        <v>9.2592592592593767E-5</v>
-      </c>
-      <c r="F41" s="6">
+        <v>72</v>
+      </c>
+      <c r="G41" s="6">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="G41" s="6">
+        <v>704</v>
+      </c>
+      <c r="H41" s="6">
         <f t="shared" si="6"/>
-        <v>784</v>
-      </c>
-      <c r="H41" s="6">
-        <f t="shared" si="7"/>
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="I41" s="1" t="str">
         <f>VLOOKUP(J41,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J41" s="1" t="str">
-        <f>VLOOKUP(B41,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>cookingSpoon</v>
+        <f>VLOOKUP(B41,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>clingFilm</v>
       </c>
       <c r="K41" s="1">
-        <f>VLOOKUP(B41,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B41,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M41" s="1">
@@ -6034,40 +6058,40 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C42" s="4">
-        <v>9.2361111111111116E-3</v>
+        <v>8.9351851851851866E-3</v>
       </c>
       <c r="D42" s="4">
-        <v>9.5370370370370366E-3</v>
+        <v>9.0046296296296298E-3</v>
       </c>
       <c r="E42" s="4">
+        <f t="shared" si="0"/>
+        <v>6.9444444444443157E-5</v>
+      </c>
+      <c r="F42" s="6">
         <f t="shared" si="4"/>
-        <v>3.0092592592592497E-4</v>
-      </c>
-      <c r="F42" s="6">
+        <v>6</v>
+      </c>
+      <c r="G42" s="6">
         <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="G42" s="6">
+        <v>772</v>
+      </c>
+      <c r="H42" s="6">
         <f t="shared" si="6"/>
-        <v>798</v>
-      </c>
-      <c r="H42" s="6">
-        <f t="shared" si="7"/>
-        <v>824</v>
+        <v>778</v>
       </c>
       <c r="I42" s="1" t="str">
         <f>VLOOKUP(J42,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J42" s="1" t="str">
-        <f>VLOOKUP(B42,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>phone</v>
+        <f>VLOOKUP(B42,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>mincedMeat</v>
       </c>
       <c r="K42" s="1">
-        <f>VLOOKUP(B42,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B42,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M42" s="1">
@@ -6079,40 +6103,40 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C43" s="4">
-        <v>9.5601851851851855E-3</v>
+        <v>8.9814814814814809E-3</v>
       </c>
       <c r="D43" s="4">
-        <v>9.7453703703703713E-3</v>
+        <v>9.0277777777777787E-3</v>
       </c>
       <c r="E43" s="4">
+        <f t="shared" si="0"/>
+        <v>4.6296296296297751E-5</v>
+      </c>
+      <c r="F43" s="6">
         <f t="shared" si="4"/>
-        <v>1.851851851851858E-4</v>
-      </c>
-      <c r="F43" s="6">
+        <v>4</v>
+      </c>
+      <c r="G43" s="6">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="G43" s="6">
+        <v>776</v>
+      </c>
+      <c r="H43" s="6">
         <f t="shared" si="6"/>
-        <v>826</v>
-      </c>
-      <c r="H43" s="6">
-        <f t="shared" si="7"/>
-        <v>842</v>
+        <v>780</v>
       </c>
       <c r="I43" s="1" t="str">
         <f>VLOOKUP(J43,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>u</v>
+        <v>e</v>
       </c>
       <c r="J43" s="1" t="str">
-        <f>VLOOKUP(B43,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>cookingSpoon</v>
+        <f>VLOOKUP(B43,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>fridge</v>
       </c>
       <c r="K43" s="1">
-        <f>VLOOKUP(B43,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B43,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M43" s="1">
@@ -6127,37 +6151,37 @@
         <v>11</v>
       </c>
       <c r="C44" s="4">
-        <v>9.5601851851851855E-3</v>
+        <v>9.0740740740740729E-3</v>
       </c>
       <c r="D44" s="4">
-        <v>9.7453703703703713E-3</v>
+        <v>9.1666666666666667E-3</v>
       </c>
       <c r="E44" s="4">
+        <f t="shared" si="0"/>
+        <v>9.2592592592593767E-5</v>
+      </c>
+      <c r="F44" s="6">
         <f t="shared" si="4"/>
-        <v>1.851851851851858E-4</v>
-      </c>
-      <c r="F44" s="6">
+        <v>8</v>
+      </c>
+      <c r="G44" s="6">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="G44" s="6">
+        <v>784</v>
+      </c>
+      <c r="H44" s="6">
         <f t="shared" si="6"/>
-        <v>826</v>
-      </c>
-      <c r="H44" s="6">
-        <f t="shared" si="7"/>
-        <v>842</v>
+        <v>792</v>
       </c>
       <c r="I44" s="1" t="str">
         <f>VLOOKUP(J44,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J44" s="1" t="str">
-        <f>VLOOKUP(B44,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
+        <f>VLOOKUP(B44,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
         <v>pan</v>
       </c>
       <c r="K44" s="1">
-        <f>VLOOKUP(B44,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B44,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M44" s="1">
@@ -6169,40 +6193,40 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C45" s="4">
-        <v>9.7685185185185184E-3</v>
+        <v>9.0740740740740729E-3</v>
       </c>
       <c r="D45" s="4">
-        <v>9.8148148148148144E-3</v>
+        <v>9.1666666666666667E-3</v>
       </c>
       <c r="E45" s="4">
+        <f t="shared" si="0"/>
+        <v>9.2592592592593767E-5</v>
+      </c>
+      <c r="F45" s="6">
         <f t="shared" si="4"/>
-        <v>4.6296296296296016E-5</v>
-      </c>
-      <c r="F45" s="6">
+        <v>8</v>
+      </c>
+      <c r="G45" s="6">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="G45" s="6">
+        <v>784</v>
+      </c>
+      <c r="H45" s="6">
         <f t="shared" si="6"/>
-        <v>844</v>
-      </c>
-      <c r="H45" s="6">
-        <f t="shared" si="7"/>
-        <v>848</v>
+        <v>792</v>
       </c>
       <c r="I45" s="1" t="str">
         <f>VLOOKUP(J45,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J45" s="1" t="str">
-        <f>VLOOKUP(B45,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>phone</v>
+        <f>VLOOKUP(B45,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>cookingSpoon</v>
       </c>
       <c r="K45" s="1">
-        <f>VLOOKUP(B45,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B45,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M45" s="1">
@@ -6214,44 +6238,41 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="C46" s="4">
-        <v>9.8611111111111104E-3</v>
+        <v>9.0740740740740729E-3</v>
       </c>
       <c r="D46" s="4">
-        <v>1.0185185185185184E-2</v>
+        <v>9.1666666666666667E-3</v>
       </c>
       <c r="E46" s="4">
+        <f t="shared" si="0"/>
+        <v>9.2592592592593767E-5</v>
+      </c>
+      <c r="F46" s="6">
         <f t="shared" si="4"/>
-        <v>3.2407407407407385E-4</v>
-      </c>
-      <c r="F46" s="6">
+        <v>8</v>
+      </c>
+      <c r="G46" s="6">
         <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="G46" s="6">
+        <v>784</v>
+      </c>
+      <c r="H46" s="6">
         <f t="shared" si="6"/>
-        <v>852</v>
-      </c>
-      <c r="H46" s="6">
-        <f t="shared" si="7"/>
-        <v>880</v>
+        <v>792</v>
       </c>
       <c r="I46" s="1" t="str">
         <f>VLOOKUP(J46,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J46" s="1" t="str">
-        <f>VLOOKUP(B46,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>fork</v>
-      </c>
-      <c r="K46" s="1">
-        <f>VLOOKUP(B46,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M46" s="1">
-        <v>1</v>
+        <f>VLOOKUP(B46,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>food</v>
+      </c>
+      <c r="K46" s="1" t="str">
+        <f>VLOOKUP(B46,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>meat</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -6259,40 +6280,40 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C47" s="4">
-        <v>9.9537037037037042E-3</v>
+        <v>9.2361111111111116E-3</v>
       </c>
       <c r="D47" s="4">
-        <v>0.01</v>
+        <v>9.5370370370370366E-3</v>
       </c>
       <c r="E47" s="4">
+        <f t="shared" si="0"/>
+        <v>3.0092592592592497E-4</v>
+      </c>
+      <c r="F47" s="6">
         <f t="shared" si="4"/>
-        <v>4.6296296296296016E-5</v>
-      </c>
-      <c r="F47" s="6">
+        <v>26</v>
+      </c>
+      <c r="G47" s="6">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="G47" s="6">
+        <v>798</v>
+      </c>
+      <c r="H47" s="6">
         <f t="shared" si="6"/>
-        <v>860</v>
-      </c>
-      <c r="H47" s="6">
-        <f t="shared" si="7"/>
-        <v>864</v>
+        <v>824</v>
       </c>
       <c r="I47" s="1" t="str">
         <f>VLOOKUP(J47,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>e</v>
+        <v>u</v>
       </c>
       <c r="J47" s="1" t="str">
-        <f>VLOOKUP(B47,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>faucet</v>
+        <f>VLOOKUP(B47,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>phone</v>
       </c>
       <c r="K47" s="1">
-        <f>VLOOKUP(B47,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B47,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M47" s="1">
@@ -6304,44 +6325,41 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C48" s="4">
-        <v>9.9537037037037042E-3</v>
+        <v>9.5601851851851855E-3</v>
       </c>
       <c r="D48" s="4">
-        <v>0.01</v>
+        <v>9.7453703703703713E-3</v>
       </c>
       <c r="E48" s="4">
+        <f t="shared" si="0"/>
+        <v>1.851851851851858E-4</v>
+      </c>
+      <c r="F48" s="6">
         <f t="shared" si="4"/>
-        <v>4.6296296296296016E-5</v>
-      </c>
-      <c r="F48" s="6">
+        <v>16</v>
+      </c>
+      <c r="G48" s="6">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="G48" s="6">
+        <v>826</v>
+      </c>
+      <c r="H48" s="6">
         <f t="shared" si="6"/>
-        <v>860</v>
-      </c>
-      <c r="H48" s="6">
-        <f t="shared" si="7"/>
-        <v>864</v>
+        <v>842</v>
       </c>
       <c r="I48" s="1" t="str">
         <f>VLOOKUP(J48,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>c</v>
+        <v>u</v>
       </c>
       <c r="J48" s="1" t="str">
-        <f>VLOOKUP(B48,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>water</v>
+        <f>VLOOKUP(B48,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>cookingSpoon</v>
       </c>
       <c r="K48" s="1">
-        <f>VLOOKUP(B48,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>78</v>
+        <f>VLOOKUP(B48,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="M48" s="1">
         <v>1</v>
@@ -6352,44 +6370,41 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="C49" s="4">
-        <v>1.0185185185185184E-2</v>
+        <v>9.5601851851851855E-3</v>
       </c>
       <c r="D49" s="4">
-        <v>1.037037037037037E-2</v>
+        <v>9.7453703703703713E-3</v>
       </c>
       <c r="E49" s="4">
+        <f t="shared" si="0"/>
+        <v>1.851851851851858E-4</v>
+      </c>
+      <c r="F49" s="6">
         <f t="shared" si="4"/>
-        <v>1.851851851851858E-4</v>
-      </c>
-      <c r="F49" s="6">
+        <v>16</v>
+      </c>
+      <c r="G49" s="6">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="G49" s="6">
+        <v>826</v>
+      </c>
+      <c r="H49" s="6">
         <f t="shared" si="6"/>
-        <v>880</v>
-      </c>
-      <c r="H49" s="6">
-        <f t="shared" si="7"/>
-        <v>896</v>
+        <v>842</v>
       </c>
       <c r="I49" s="1" t="str">
         <f>VLOOKUP(J49,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J49" s="1" t="str">
-        <f>VLOOKUP(B49,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>pan</v>
-      </c>
-      <c r="K49" s="1">
-        <f>VLOOKUP(B49,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M49" s="1">
-        <v>1</v>
+        <f>VLOOKUP(B49,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>food</v>
+      </c>
+      <c r="K49" s="1" t="str">
+        <f>VLOOKUP(B49,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>meat</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -6397,40 +6412,40 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C50" s="4">
-        <v>1.0208333333333333E-2</v>
+        <v>9.5601851851851855E-3</v>
       </c>
       <c r="D50" s="4">
-        <v>1.037037037037037E-2</v>
+        <v>9.7453703703703713E-3</v>
       </c>
       <c r="E50" s="4">
+        <f t="shared" si="0"/>
+        <v>1.851851851851858E-4</v>
+      </c>
+      <c r="F50" s="6">
         <f t="shared" si="4"/>
-        <v>1.6203703703703692E-4</v>
-      </c>
-      <c r="F50" s="6">
+        <v>16</v>
+      </c>
+      <c r="G50" s="6">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="G50" s="6">
+        <v>826</v>
+      </c>
+      <c r="H50" s="6">
         <f t="shared" si="6"/>
-        <v>882</v>
-      </c>
-      <c r="H50" s="6">
-        <f t="shared" si="7"/>
-        <v>896</v>
+        <v>842</v>
       </c>
       <c r="I50" s="1" t="str">
         <f>VLOOKUP(J50,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J50" s="1" t="str">
-        <f>VLOOKUP(B50,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>cookingSpoon</v>
+        <f>VLOOKUP(B50,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>pan</v>
       </c>
       <c r="K50" s="1">
-        <f>VLOOKUP(B50,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B50,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M50" s="1">
@@ -6445,37 +6460,37 @@
         <v>20</v>
       </c>
       <c r="C51" s="4">
-        <v>1.0393518518518519E-2</v>
+        <v>9.7685185185185184E-3</v>
       </c>
       <c r="D51" s="4">
-        <v>1.0625000000000001E-2</v>
+        <v>9.8148148148148144E-3</v>
       </c>
       <c r="E51" s="4">
+        <f t="shared" si="0"/>
+        <v>4.6296296296296016E-5</v>
+      </c>
+      <c r="F51" s="6">
         <f t="shared" si="4"/>
-        <v>2.3148148148148182E-4</v>
-      </c>
-      <c r="F51" s="6">
+        <v>4</v>
+      </c>
+      <c r="G51" s="6">
         <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="G51" s="6">
+        <v>844</v>
+      </c>
+      <c r="H51" s="6">
         <f t="shared" si="6"/>
-        <v>898</v>
-      </c>
-      <c r="H51" s="6">
-        <f t="shared" si="7"/>
-        <v>918</v>
+        <v>848</v>
       </c>
       <c r="I51" s="1" t="str">
         <f>VLOOKUP(J51,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J51" s="1" t="str">
-        <f>VLOOKUP(B51,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
+        <f>VLOOKUP(B51,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
         <v>phone</v>
       </c>
       <c r="K51" s="1">
-        <f>VLOOKUP(B51,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B51,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M51" s="1">
@@ -6487,40 +6502,40 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C52" s="4">
-        <v>1.064814814814815E-2</v>
+        <v>9.8611111111111104E-3</v>
       </c>
       <c r="D52" s="4">
-        <v>1.0787037037037038E-2</v>
+        <v>1.0185185185185184E-2</v>
       </c>
       <c r="E52" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2407407407407385E-4</v>
+      </c>
+      <c r="F52" s="6">
         <f t="shared" si="4"/>
-        <v>1.3888888888888805E-4</v>
-      </c>
-      <c r="F52" s="6">
+        <v>28</v>
+      </c>
+      <c r="G52" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="G52" s="6">
+        <v>852</v>
+      </c>
+      <c r="H52" s="6">
         <f t="shared" si="6"/>
-        <v>920</v>
-      </c>
-      <c r="H52" s="6">
-        <f t="shared" si="7"/>
-        <v>932</v>
+        <v>880</v>
       </c>
       <c r="I52" s="1" t="str">
         <f>VLOOKUP(J52,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J52" s="1" t="str">
-        <f>VLOOKUP(B52,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>cookingSpoon</v>
+        <f>VLOOKUP(B52,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>fork</v>
       </c>
       <c r="K52" s="1">
-        <f>VLOOKUP(B52,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B52,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M52" s="1">
@@ -6532,40 +6547,40 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C53" s="4">
-        <v>1.064814814814815E-2</v>
+        <v>9.9537037037037042E-3</v>
       </c>
       <c r="D53" s="4">
-        <v>1.0787037037037038E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E53" s="4">
+        <f t="shared" si="0"/>
+        <v>4.6296296296296016E-5</v>
+      </c>
+      <c r="F53" s="6">
         <f t="shared" si="4"/>
-        <v>1.3888888888888805E-4</v>
-      </c>
-      <c r="F53" s="6">
+        <v>4</v>
+      </c>
+      <c r="G53" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="G53" s="6">
+        <v>860</v>
+      </c>
+      <c r="H53" s="6">
         <f t="shared" si="6"/>
-        <v>920</v>
-      </c>
-      <c r="H53" s="6">
-        <f t="shared" si="7"/>
-        <v>932</v>
+        <v>864</v>
       </c>
       <c r="I53" s="1" t="str">
         <f>VLOOKUP(J53,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>u</v>
+        <v>e</v>
       </c>
       <c r="J53" s="1" t="str">
-        <f>VLOOKUP(B53,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>pan</v>
+        <f>VLOOKUP(B53,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>faucet</v>
       </c>
       <c r="K53" s="1">
-        <f>VLOOKUP(B53,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B53,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M53" s="1">
@@ -6577,44 +6592,44 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C54" s="4">
-        <v>1.0810185185185185E-2</v>
+        <v>9.9537037037037042E-3</v>
       </c>
       <c r="D54" s="4">
-        <v>1.0949074074074075E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E54" s="4">
+        <f t="shared" si="0"/>
+        <v>4.6296296296296016E-5</v>
+      </c>
+      <c r="F54" s="6">
         <f t="shared" si="4"/>
-        <v>1.3888888888888978E-4</v>
-      </c>
-      <c r="F54" s="6">
+        <v>4</v>
+      </c>
+      <c r="G54" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="G54" s="6">
+        <v>860</v>
+      </c>
+      <c r="H54" s="6">
         <f t="shared" si="6"/>
-        <v>934</v>
-      </c>
-      <c r="H54" s="6">
-        <f t="shared" si="7"/>
-        <v>946</v>
+        <v>864</v>
       </c>
       <c r="I54" s="1" t="str">
         <f>VLOOKUP(J54,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J54" s="1" t="str">
-        <f>VLOOKUP(B54,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>phone</v>
+        <f>VLOOKUP(B54,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>water</v>
       </c>
       <c r="K54" s="1">
-        <f>VLOOKUP(B54,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B54,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M54" s="1">
         <v>1</v>
@@ -6625,40 +6640,40 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C55" s="4">
-        <v>1.1203703703703704E-2</v>
+        <v>1.0185185185185184E-2</v>
       </c>
       <c r="D55" s="4">
-        <v>1.1319444444444444E-2</v>
+        <v>1.037037037037037E-2</v>
       </c>
       <c r="E55" s="4">
+        <f t="shared" si="0"/>
+        <v>1.851851851851858E-4</v>
+      </c>
+      <c r="F55" s="6">
         <f t="shared" si="4"/>
-        <v>1.1574074074074091E-4</v>
-      </c>
-      <c r="F55" s="6">
+        <v>16</v>
+      </c>
+      <c r="G55" s="6">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="G55" s="6">
+        <v>880</v>
+      </c>
+      <c r="H55" s="6">
         <f t="shared" si="6"/>
-        <v>968</v>
-      </c>
-      <c r="H55" s="6">
-        <f t="shared" si="7"/>
-        <v>978</v>
+        <v>896</v>
       </c>
       <c r="I55" s="1" t="str">
         <f>VLOOKUP(J55,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J55" s="1" t="str">
-        <f>VLOOKUP(B55,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>cookingSpoon</v>
+        <f>VLOOKUP(B55,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>pan</v>
       </c>
       <c r="K55" s="1">
-        <f>VLOOKUP(B55,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B55,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M55" s="1">
@@ -6670,44 +6685,41 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="C56" s="4">
-        <v>1.1203703703703704E-2</v>
+        <v>1.0185185185185184E-2</v>
       </c>
       <c r="D56" s="4">
-        <v>1.1319444444444444E-2</v>
+        <v>1.037037037037037E-2</v>
       </c>
       <c r="E56" s="4">
+        <f t="shared" si="0"/>
+        <v>1.851851851851858E-4</v>
+      </c>
+      <c r="F56" s="6">
         <f t="shared" si="4"/>
-        <v>1.1574074074074091E-4</v>
-      </c>
-      <c r="F56" s="6">
+        <v>16</v>
+      </c>
+      <c r="G56" s="6">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="G56" s="6">
+        <v>880</v>
+      </c>
+      <c r="H56" s="6">
         <f t="shared" si="6"/>
-        <v>968</v>
-      </c>
-      <c r="H56" s="6">
-        <f t="shared" si="7"/>
-        <v>978</v>
+        <v>896</v>
       </c>
       <c r="I56" s="1" t="str">
         <f>VLOOKUP(J56,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J56" s="1" t="str">
-        <f>VLOOKUP(B56,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>pan</v>
-      </c>
-      <c r="K56" s="1">
-        <f>VLOOKUP(B56,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M56" s="1">
-        <v>1</v>
+        <f>VLOOKUP(B56,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>food</v>
+      </c>
+      <c r="K56" s="1" t="str">
+        <f>VLOOKUP(B56,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>meat</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -6715,40 +6727,40 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C57" s="4">
-        <v>1.1319444444444444E-2</v>
+        <v>1.0208333333333333E-2</v>
       </c>
       <c r="D57" s="4">
-        <v>1.1388888888888888E-2</v>
+        <v>1.037037037037037E-2</v>
       </c>
       <c r="E57" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6203703703703692E-4</v>
+      </c>
+      <c r="F57" s="6">
         <f t="shared" si="4"/>
-        <v>6.9444444444443157E-5</v>
-      </c>
-      <c r="F57" s="6">
+        <v>14</v>
+      </c>
+      <c r="G57" s="6">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="G57" s="6">
+        <v>882</v>
+      </c>
+      <c r="H57" s="6">
         <f t="shared" si="6"/>
-        <v>978</v>
-      </c>
-      <c r="H57" s="6">
-        <f t="shared" si="7"/>
-        <v>984</v>
+        <v>896</v>
       </c>
       <c r="I57" s="1" t="str">
         <f>VLOOKUP(J57,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J57" s="1" t="str">
-        <f>VLOOKUP(B57,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>fork</v>
+        <f>VLOOKUP(B57,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>cookingSpoon</v>
       </c>
       <c r="K57" s="1">
-        <f>VLOOKUP(B57,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B57,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M57" s="1">
@@ -6760,40 +6772,40 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C58" s="4">
-        <v>1.1412037037037038E-2</v>
+        <v>1.0393518518518519E-2</v>
       </c>
       <c r="D58" s="4">
-        <v>1.1458333333333334E-2</v>
+        <v>1.0625000000000001E-2</v>
       </c>
       <c r="E58" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3148148148148182E-4</v>
+      </c>
+      <c r="F58" s="6">
         <f t="shared" si="4"/>
-        <v>4.6296296296296016E-5</v>
-      </c>
-      <c r="F58" s="6">
+        <v>20</v>
+      </c>
+      <c r="G58" s="6">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="G58" s="6">
+        <v>898</v>
+      </c>
+      <c r="H58" s="6">
         <f t="shared" si="6"/>
-        <v>986</v>
-      </c>
-      <c r="H58" s="6">
-        <f t="shared" si="7"/>
-        <v>990</v>
+        <v>918</v>
       </c>
       <c r="I58" s="1" t="str">
         <f>VLOOKUP(J58,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J58" s="1" t="str">
-        <f>VLOOKUP(B58,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>cookingSpoon</v>
+        <f>VLOOKUP(B58,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>phone</v>
       </c>
       <c r="K58" s="1">
-        <f>VLOOKUP(B58,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B58,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M58" s="1">
@@ -6805,40 +6817,40 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C59" s="4">
-        <v>1.1412037037037038E-2</v>
+        <v>1.064814814814815E-2</v>
       </c>
       <c r="D59" s="4">
-        <v>1.1458333333333334E-2</v>
+        <v>1.0787037037037038E-2</v>
       </c>
       <c r="E59" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888805E-4</v>
+      </c>
+      <c r="F59" s="6">
         <f t="shared" si="4"/>
-        <v>4.6296296296296016E-5</v>
-      </c>
-      <c r="F59" s="6">
+        <v>12</v>
+      </c>
+      <c r="G59" s="6">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="G59" s="6">
+        <v>920</v>
+      </c>
+      <c r="H59" s="6">
         <f t="shared" si="6"/>
-        <v>986</v>
-      </c>
-      <c r="H59" s="6">
-        <f t="shared" si="7"/>
-        <v>990</v>
+        <v>932</v>
       </c>
       <c r="I59" s="1" t="str">
         <f>VLOOKUP(J59,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J59" s="1" t="str">
-        <f>VLOOKUP(B59,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>pan</v>
+        <f>VLOOKUP(B59,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>cookingSpoon</v>
       </c>
       <c r="K59" s="1">
-        <f>VLOOKUP(B59,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B59,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M59" s="1">
@@ -6850,44 +6862,41 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="C60" s="4">
-        <v>1.1481481481481483E-2</v>
+        <v>1.064814814814815E-2</v>
       </c>
       <c r="D60" s="4">
-        <v>1.1550925925925925E-2</v>
+        <v>1.0787037037037038E-2</v>
       </c>
       <c r="E60" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888805E-4</v>
+      </c>
+      <c r="F60" s="6">
         <f t="shared" si="4"/>
-        <v>6.9444444444441422E-5</v>
-      </c>
-      <c r="F60" s="6">
+        <v>12</v>
+      </c>
+      <c r="G60" s="6">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="G60" s="6">
+        <v>920</v>
+      </c>
+      <c r="H60" s="6">
         <f t="shared" si="6"/>
-        <v>992</v>
-      </c>
-      <c r="H60" s="6">
-        <f t="shared" si="7"/>
-        <v>998</v>
+        <v>932</v>
       </c>
       <c r="I60" s="1" t="str">
         <f>VLOOKUP(J60,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J60" s="1" t="str">
-        <f>VLOOKUP(B60,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>fork</v>
-      </c>
-      <c r="K60" s="1">
-        <f>VLOOKUP(B60,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M60" s="1">
-        <v>1</v>
+        <f>VLOOKUP(B60,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>food</v>
+      </c>
+      <c r="K60" s="1" t="str">
+        <f>VLOOKUP(B60,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>meat</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -6895,40 +6904,40 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C61" s="4">
-        <v>1.1550925925925925E-2</v>
+        <v>1.064814814814815E-2</v>
       </c>
       <c r="D61" s="4">
-        <v>1.1689814814814814E-2</v>
+        <v>1.0787037037037038E-2</v>
       </c>
       <c r="E61" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888805E-4</v>
+      </c>
+      <c r="F61" s="6">
         <f t="shared" si="4"/>
-        <v>1.3888888888888978E-4</v>
-      </c>
-      <c r="F61" s="6">
+        <v>12</v>
+      </c>
+      <c r="G61" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="G61" s="6">
+        <v>920</v>
+      </c>
+      <c r="H61" s="6">
         <f t="shared" si="6"/>
-        <v>998</v>
-      </c>
-      <c r="H61" s="6">
-        <f t="shared" si="7"/>
-        <v>1010</v>
+        <v>932</v>
       </c>
       <c r="I61" s="1" t="str">
         <f>VLOOKUP(J61,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J61" s="1" t="str">
-        <f>VLOOKUP(B61,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>cookingSpoon</v>
+        <f>VLOOKUP(B61,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>pan</v>
       </c>
       <c r="K61" s="1">
-        <f>VLOOKUP(B61,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B61,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M61" s="1">
@@ -6940,41 +6949,44 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C62" s="4">
-        <v>1.1550925925925925E-2</v>
+        <v>1.0810185185185185E-2</v>
       </c>
       <c r="D62" s="4">
-        <v>1.1689814814814814E-2</v>
+        <v>1.0949074074074075E-2</v>
       </c>
       <c r="E62" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888978E-4</v>
+      </c>
+      <c r="F62" s="6">
         <f t="shared" si="4"/>
-        <v>1.3888888888888978E-4</v>
-      </c>
-      <c r="F62" s="6">
+        <v>12</v>
+      </c>
+      <c r="G62" s="6">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="G62" s="6">
+        <v>934</v>
+      </c>
+      <c r="H62" s="6">
         <f t="shared" si="6"/>
-        <v>998</v>
-      </c>
-      <c r="H62" s="6">
-        <f t="shared" si="7"/>
-        <v>1010</v>
+        <v>946</v>
       </c>
       <c r="I62" s="1" t="str">
         <f>VLOOKUP(J62,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J62" s="1" t="str">
-        <f>VLOOKUP(B62,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>pan</v>
+        <f>VLOOKUP(B62,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>phone</v>
       </c>
       <c r="K62" s="1">
-        <f>VLOOKUP(B62,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(B62,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="M62" s="1">
         <v>1</v>
@@ -6985,44 +6997,41 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C63" s="4">
-        <v>1.1666666666666667E-2</v>
+        <v>1.1203703703703704E-2</v>
       </c>
       <c r="D63" s="4">
-        <v>1.1689814814814814E-2</v>
+        <v>1.1319444444444444E-2</v>
       </c>
       <c r="E63" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1574074074074091E-4</v>
+      </c>
+      <c r="F63" s="6">
         <f t="shared" si="4"/>
-        <v>2.3148148148147141E-5</v>
-      </c>
-      <c r="F63" s="6">
+        <v>10</v>
+      </c>
+      <c r="G63" s="6">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="G63" s="6">
+        <v>968</v>
+      </c>
+      <c r="H63" s="6">
         <f t="shared" si="6"/>
-        <v>1008</v>
-      </c>
-      <c r="H63" s="6">
-        <f t="shared" si="7"/>
-        <v>1010</v>
+        <v>978</v>
       </c>
       <c r="I63" s="1" t="str">
         <f>VLOOKUP(J63,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>e</v>
+        <v>u</v>
       </c>
       <c r="J63" s="1" t="str">
-        <f>VLOOKUP(B63,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>stove</v>
+        <f>VLOOKUP(B63,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>cookingSpoon</v>
       </c>
       <c r="K63" s="1">
-        <f>VLOOKUP(B63,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>71</v>
+        <f>VLOOKUP(B63,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="M63" s="1">
         <v>1</v>
@@ -7033,44 +7042,41 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="C64" s="4">
-        <v>1.1712962962962965E-2</v>
+        <v>1.1203703703703704E-2</v>
       </c>
       <c r="D64" s="4">
-        <v>1.1828703703703704E-2</v>
+        <v>1.1319444444444444E-2</v>
       </c>
       <c r="E64" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1574074074074091E-4</v>
+      </c>
+      <c r="F64" s="6">
         <f t="shared" si="4"/>
-        <v>1.1574074074073917E-4</v>
-      </c>
-      <c r="F64" s="6">
+        <v>10</v>
+      </c>
+      <c r="G64" s="6">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="G64" s="6">
+        <v>968</v>
+      </c>
+      <c r="H64" s="6">
         <f t="shared" si="6"/>
-        <v>1012</v>
-      </c>
-      <c r="H64" s="6">
-        <f t="shared" si="7"/>
-        <v>1022</v>
+        <v>978</v>
       </c>
       <c r="I64" s="1" t="str">
         <f>VLOOKUP(J64,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J64" s="1" t="str">
-        <f>VLOOKUP(B64,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>fork</v>
-      </c>
-      <c r="K64" s="1">
-        <f>VLOOKUP(B64,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M64" s="1">
-        <v>1</v>
+        <f>VLOOKUP(B64,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>food</v>
+      </c>
+      <c r="K64" s="1" t="str">
+        <f>VLOOKUP(B64,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>meat</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -7078,40 +7084,40 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C65" s="4">
-        <v>1.1921296296296298E-2</v>
+        <v>1.1203703703703704E-2</v>
       </c>
       <c r="D65" s="4">
-        <v>1.1944444444444445E-2</v>
+        <v>1.1319444444444444E-2</v>
       </c>
       <c r="E65" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1574074074074091E-4</v>
+      </c>
+      <c r="F65" s="6">
         <f t="shared" si="4"/>
-        <v>2.3148148148147141E-5</v>
-      </c>
-      <c r="F65" s="6">
+        <v>10</v>
+      </c>
+      <c r="G65" s="6">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="G65" s="6">
+        <v>968</v>
+      </c>
+      <c r="H65" s="6">
         <f t="shared" si="6"/>
-        <v>1030</v>
-      </c>
-      <c r="H65" s="6">
-        <f t="shared" si="7"/>
-        <v>1032</v>
+        <v>978</v>
       </c>
       <c r="I65" s="1" t="str">
         <f>VLOOKUP(J65,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J65" s="1" t="str">
-        <f>VLOOKUP(B65,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>fork</v>
+        <f>VLOOKUP(B65,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>pan</v>
       </c>
       <c r="K65" s="1">
-        <f>VLOOKUP(B65,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B65,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M65" s="1">
@@ -7123,40 +7129,40 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C66" s="4">
-        <v>1.1967592592592592E-2</v>
+        <v>1.1319444444444444E-2</v>
       </c>
       <c r="D66" s="4">
-        <v>1.2013888888888888E-2</v>
+        <v>1.1388888888888888E-2</v>
       </c>
       <c r="E66" s="4">
-        <f t="shared" ref="E66:E92" si="8">D66-C66</f>
-        <v>4.6296296296296016E-5</v>
+        <f t="shared" ref="E66:E120" si="7">D66-C66</f>
+        <v>6.9444444444443157E-5</v>
       </c>
       <c r="F66" s="6">
-        <f t="shared" ref="F66:F92" si="9">HOUR(E66) *3600 + MINUTE(E66) * 60 + SECOND(E66)</f>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="G66" s="6">
-        <f t="shared" ref="G66:G92" si="10">HOUR(C66) *3600 + MINUTE(C66) * 60 + SECOND(C66)</f>
-        <v>1034</v>
+        <f t="shared" si="5"/>
+        <v>978</v>
       </c>
       <c r="H66" s="6">
-        <f t="shared" ref="H66:H92" si="11">HOUR(D66) *3600 + MINUTE(D66) * 60 + SECOND(D66)</f>
-        <v>1038</v>
+        <f t="shared" si="6"/>
+        <v>984</v>
       </c>
       <c r="I66" s="1" t="str">
         <f>VLOOKUP(J66,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J66" s="1" t="str">
-        <f>VLOOKUP(B66,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>cookingSpoon</v>
+        <f>VLOOKUP(B66,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>fork</v>
       </c>
       <c r="K66" s="1">
-        <f>VLOOKUP(B66,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B66,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M66" s="1">
@@ -7171,41 +7177,38 @@
         <v>0</v>
       </c>
       <c r="C67" s="4">
-        <v>1.2129629629629629E-2</v>
+        <v>1.1319444444444444E-2</v>
       </c>
       <c r="D67" s="4">
-        <v>1.2152777777777778E-2</v>
+        <v>1.1388888888888888E-2</v>
       </c>
       <c r="E67" s="4">
-        <f t="shared" si="8"/>
-        <v>2.3148148148148875E-5</v>
+        <f t="shared" si="7"/>
+        <v>6.9444444444443157E-5</v>
       </c>
       <c r="F67" s="6">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" ref="F67:F120" si="8">HOUR(E67) *3600 + MINUTE(E67) * 60 + SECOND(E67)</f>
+        <v>6</v>
       </c>
       <c r="G67" s="6">
-        <f t="shared" si="10"/>
-        <v>1048</v>
+        <f t="shared" ref="G67:G120" si="9">HOUR(C67) *3600 + MINUTE(C67) * 60 + SECOND(C67)</f>
+        <v>978</v>
       </c>
       <c r="H67" s="6">
-        <f t="shared" si="11"/>
-        <v>1050</v>
+        <f t="shared" ref="H67:H120" si="10">HOUR(D67) *3600 + MINUTE(D67) * 60 + SECOND(D67)</f>
+        <v>984</v>
       </c>
       <c r="I67" s="1" t="str">
         <f>VLOOKUP(J67,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J67" s="1" t="str">
-        <f>VLOOKUP(B67,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
+        <f>VLOOKUP(B67,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
         <v>pot</v>
       </c>
       <c r="K67" s="1">
-        <f>VLOOKUP(B67,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M67" s="1">
-        <v>1</v>
+        <f>VLOOKUP(B67,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -7213,44 +7216,41 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="C68" s="4">
-        <v>1.2129629629629629E-2</v>
+        <v>1.1319444444444444E-2</v>
       </c>
       <c r="D68" s="4">
-        <v>1.2199074074074072E-2</v>
+        <v>1.1388888888888888E-2</v>
       </c>
       <c r="E68" s="4">
+        <f t="shared" si="7"/>
+        <v>6.9444444444443157E-5</v>
+      </c>
+      <c r="F68" s="6">
         <f t="shared" si="8"/>
-        <v>6.9444444444443157E-5</v>
-      </c>
-      <c r="F68" s="6">
+        <v>6</v>
+      </c>
+      <c r="G68" s="6">
         <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="G68" s="6">
+        <v>978</v>
+      </c>
+      <c r="H68" s="6">
         <f t="shared" si="10"/>
-        <v>1048</v>
-      </c>
-      <c r="H68" s="6">
-        <f t="shared" si="11"/>
-        <v>1054</v>
+        <v>984</v>
       </c>
       <c r="I68" s="1" t="str">
         <f>VLOOKUP(J68,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J68" s="1" t="str">
-        <f>VLOOKUP(B68,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>pan</v>
-      </c>
-      <c r="K68" s="1">
-        <f>VLOOKUP(B68,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M68" s="1">
-        <v>1</v>
+        <f>VLOOKUP(B68,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>food</v>
+      </c>
+      <c r="K68" s="1" t="str">
+        <f>VLOOKUP(B68,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>pasta</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -7261,37 +7261,37 @@
         <v>22</v>
       </c>
       <c r="C69" s="4">
-        <v>1.2152777777777778E-2</v>
+        <v>1.1412037037037038E-2</v>
       </c>
       <c r="D69" s="4">
-        <v>1.2199074074074072E-2</v>
+        <v>1.1458333333333334E-2</v>
       </c>
       <c r="E69" s="4">
+        <f t="shared" si="7"/>
+        <v>4.6296296296296016E-5</v>
+      </c>
+      <c r="F69" s="6">
         <f t="shared" si="8"/>
-        <v>4.6296296296294281E-5</v>
-      </c>
-      <c r="F69" s="6">
+        <v>4</v>
+      </c>
+      <c r="G69" s="6">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="G69" s="6">
+        <v>986</v>
+      </c>
+      <c r="H69" s="6">
         <f t="shared" si="10"/>
-        <v>1050</v>
-      </c>
-      <c r="H69" s="6">
-        <f t="shared" si="11"/>
-        <v>1054</v>
+        <v>990</v>
       </c>
       <c r="I69" s="1" t="str">
         <f>VLOOKUP(J69,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J69" s="1" t="str">
-        <f>VLOOKUP(B69,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
+        <f>VLOOKUP(B69,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
         <v>cookingSpoon</v>
       </c>
       <c r="K69" s="1">
-        <f>VLOOKUP(B69,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B69,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M69" s="1">
@@ -7303,44 +7303,41 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="C70" s="4">
-        <v>1.2222222222222223E-2</v>
+        <v>1.1412037037037038E-2</v>
       </c>
       <c r="D70" s="4">
-        <v>1.224537037037037E-2</v>
+        <v>1.1458333333333334E-2</v>
       </c>
       <c r="E70" s="4">
+        <f t="shared" si="7"/>
+        <v>4.6296296296296016E-5</v>
+      </c>
+      <c r="F70" s="6">
         <f t="shared" si="8"/>
-        <v>2.3148148148147141E-5</v>
-      </c>
-      <c r="F70" s="6">
+        <v>4</v>
+      </c>
+      <c r="G70" s="6">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="G70" s="6">
+        <v>986</v>
+      </c>
+      <c r="H70" s="6">
         <f t="shared" si="10"/>
-        <v>1056</v>
-      </c>
-      <c r="H70" s="6">
-        <f t="shared" si="11"/>
-        <v>1058</v>
+        <v>990</v>
       </c>
       <c r="I70" s="1" t="str">
         <f>VLOOKUP(J70,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J70" s="1" t="str">
-        <f>VLOOKUP(B70,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>fork</v>
-      </c>
-      <c r="K70" s="1">
-        <f>VLOOKUP(B70,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M70" s="1">
-        <v>1</v>
+        <f>VLOOKUP(B70,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>food</v>
+      </c>
+      <c r="K70" s="1" t="str">
+        <f>VLOOKUP(B70,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>meat</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -7348,40 +7345,40 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C71" s="4">
-        <v>1.2268518518518519E-2</v>
+        <v>1.1412037037037038E-2</v>
       </c>
       <c r="D71" s="4">
-        <v>1.252314814814815E-2</v>
+        <v>1.1458333333333334E-2</v>
       </c>
       <c r="E71" s="4">
+        <f t="shared" si="7"/>
+        <v>4.6296296296296016E-5</v>
+      </c>
+      <c r="F71" s="6">
         <f t="shared" si="8"/>
-        <v>2.5462962962963069E-4</v>
-      </c>
-      <c r="F71" s="6">
+        <v>4</v>
+      </c>
+      <c r="G71" s="6">
         <f t="shared" si="9"/>
-        <v>22</v>
-      </c>
-      <c r="G71" s="6">
+        <v>986</v>
+      </c>
+      <c r="H71" s="6">
         <f t="shared" si="10"/>
-        <v>1060</v>
-      </c>
-      <c r="H71" s="6">
-        <f t="shared" si="11"/>
-        <v>1082</v>
+        <v>990</v>
       </c>
       <c r="I71" s="1" t="str">
         <f>VLOOKUP(J71,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J71" s="1" t="str">
-        <f>VLOOKUP(B71,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>phone</v>
+        <f>VLOOKUP(B71,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>pan</v>
       </c>
       <c r="K71" s="1">
-        <f>VLOOKUP(B71,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B71,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M71" s="1">
@@ -7393,40 +7390,40 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C72" s="4">
-        <v>1.252314814814815E-2</v>
+        <v>1.1481481481481483E-2</v>
       </c>
       <c r="D72" s="4">
-        <v>1.2615740740740742E-2</v>
+        <v>1.1550925925925925E-2</v>
       </c>
       <c r="E72" s="4">
+        <f t="shared" si="7"/>
+        <v>6.9444444444441422E-5</v>
+      </c>
+      <c r="F72" s="6">
         <f t="shared" si="8"/>
-        <v>9.2592592592592032E-5</v>
-      </c>
-      <c r="F72" s="6">
+        <v>6</v>
+      </c>
+      <c r="G72" s="6">
         <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="G72" s="6">
+        <v>992</v>
+      </c>
+      <c r="H72" s="6">
         <f t="shared" si="10"/>
-        <v>1082</v>
-      </c>
-      <c r="H72" s="6">
-        <f t="shared" si="11"/>
-        <v>1090</v>
+        <v>998</v>
       </c>
       <c r="I72" s="1" t="str">
         <f>VLOOKUP(J72,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J72" s="1" t="str">
-        <f>VLOOKUP(B72,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>pot</v>
+        <f>VLOOKUP(B72,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>fork</v>
       </c>
       <c r="K72" s="1">
-        <f>VLOOKUP(B72,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B72,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M72" s="1">
@@ -7435,95 +7432,86 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C73" s="4">
-        <v>1.2546296296296297E-2</v>
+        <v>1.1481481481481483E-2</v>
       </c>
       <c r="D73" s="4">
-        <v>1.2731481481481481E-2</v>
+        <v>1.1550925925925925E-2</v>
       </c>
       <c r="E73" s="4">
+        <f t="shared" si="7"/>
+        <v>6.9444444444441422E-5</v>
+      </c>
+      <c r="F73" s="6">
         <f t="shared" si="8"/>
-        <v>1.8518518518518406E-4</v>
-      </c>
-      <c r="F73" s="6">
+        <v>6</v>
+      </c>
+      <c r="G73" s="6">
         <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="G73" s="6">
+        <v>992</v>
+      </c>
+      <c r="H73" s="6">
         <f t="shared" si="10"/>
-        <v>1084</v>
-      </c>
-      <c r="H73" s="6">
-        <f t="shared" si="11"/>
-        <v>1100</v>
+        <v>998</v>
       </c>
       <c r="I73" s="1" t="str">
         <f>VLOOKUP(J73,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J73" s="1" t="str">
-        <f>VLOOKUP(B73,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>fork</v>
+        <f>VLOOKUP(B73,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>pot</v>
       </c>
       <c r="K73" s="1">
-        <f>VLOOKUP(B73,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M73" s="1">
-        <v>1</v>
+        <f>VLOOKUP(B73,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C74" s="4">
-        <v>1.2685185185185183E-2</v>
+        <v>1.1481481481481483E-2</v>
       </c>
       <c r="D74" s="4">
-        <v>1.2731481481481481E-2</v>
+        <v>1.1550925925925925E-2</v>
       </c>
       <c r="E74" s="4">
+        <f t="shared" si="7"/>
+        <v>6.9444444444441422E-5</v>
+      </c>
+      <c r="F74" s="6">
         <f t="shared" si="8"/>
-        <v>4.6296296296297751E-5</v>
-      </c>
-      <c r="F74" s="6">
+        <v>6</v>
+      </c>
+      <c r="G74" s="6">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="G74" s="6">
+        <v>992</v>
+      </c>
+      <c r="H74" s="6">
         <f t="shared" si="10"/>
-        <v>1096</v>
-      </c>
-      <c r="H74" s="6">
-        <f t="shared" si="11"/>
-        <v>1100</v>
+        <v>998</v>
       </c>
       <c r="I74" s="1" t="str">
         <f>VLOOKUP(J74,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>c</v>
       </c>
       <c r="J74" s="1" t="str">
-        <f>VLOOKUP(B74,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>spaghetti</v>
-      </c>
-      <c r="K74" s="1">
-        <f>VLOOKUP(B74,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M74" s="1">
-        <v>1</v>
+        <f>VLOOKUP(B74,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>food</v>
+      </c>
+      <c r="K74" s="1" t="str">
+        <f>VLOOKUP(B74,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>pasta</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -7531,40 +7519,40 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C75" s="4">
-        <v>1.2847222222222223E-2</v>
+        <v>1.1550925925925925E-2</v>
       </c>
       <c r="D75" s="4">
-        <v>1.2939814814814814E-2</v>
+        <v>1.1689814814814814E-2</v>
       </c>
       <c r="E75" s="4">
+        <f t="shared" si="7"/>
+        <v>1.3888888888888978E-4</v>
+      </c>
+      <c r="F75" s="6">
         <f t="shared" si="8"/>
-        <v>9.2592592592590298E-5</v>
-      </c>
-      <c r="F75" s="6">
+        <v>12</v>
+      </c>
+      <c r="G75" s="6">
         <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="G75" s="6">
+        <v>998</v>
+      </c>
+      <c r="H75" s="6">
         <f t="shared" si="10"/>
-        <v>1110</v>
-      </c>
-      <c r="H75" s="6">
-        <f t="shared" si="11"/>
-        <v>1118</v>
+        <v>1010</v>
       </c>
       <c r="I75" s="1" t="str">
         <f>VLOOKUP(J75,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J75" s="1" t="str">
-        <f>VLOOKUP(B75,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>pan</v>
+        <f>VLOOKUP(B75,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>cookingSpoon</v>
       </c>
       <c r="K75" s="1">
-        <f>VLOOKUP(B75,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B75,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M75" s="1">
@@ -7576,44 +7564,41 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="C76" s="4">
-        <v>1.2847222222222223E-2</v>
+        <v>1.1550925925925925E-2</v>
       </c>
       <c r="D76" s="4">
-        <v>1.2939814814814814E-2</v>
+        <v>1.1689814814814814E-2</v>
       </c>
       <c r="E76" s="4">
+        <f t="shared" si="7"/>
+        <v>1.3888888888888978E-4</v>
+      </c>
+      <c r="F76" s="6">
         <f t="shared" si="8"/>
-        <v>9.2592592592590298E-5</v>
-      </c>
-      <c r="F76" s="6">
+        <v>12</v>
+      </c>
+      <c r="G76" s="6">
         <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="G76" s="6">
+        <v>998</v>
+      </c>
+      <c r="H76" s="6">
         <f t="shared" si="10"/>
-        <v>1110</v>
-      </c>
-      <c r="H76" s="6">
-        <f t="shared" si="11"/>
-        <v>1118</v>
+        <v>1010</v>
       </c>
       <c r="I76" s="1" t="str">
         <f>VLOOKUP(J76,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J76" s="1" t="str">
-        <f>VLOOKUP(B76,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>cookingSpoon</v>
-      </c>
-      <c r="K76" s="1">
-        <f>VLOOKUP(B76,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M76" s="1">
-        <v>1</v>
+        <f>VLOOKUP(B76,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>food</v>
+      </c>
+      <c r="K76" s="1" t="str">
+        <f>VLOOKUP(B76,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>meat</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -7621,44 +7606,41 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C77" s="4">
-        <v>1.2916666666666667E-2</v>
+        <v>1.1550925925925925E-2</v>
       </c>
       <c r="D77" s="4">
-        <v>1.2962962962962963E-2</v>
+        <v>1.1689814814814814E-2</v>
       </c>
       <c r="E77" s="4">
+        <f t="shared" si="7"/>
+        <v>1.3888888888888978E-4</v>
+      </c>
+      <c r="F77" s="6">
         <f t="shared" si="8"/>
-        <v>4.6296296296296016E-5</v>
-      </c>
-      <c r="F77" s="6">
+        <v>12</v>
+      </c>
+      <c r="G77" s="6">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="G77" s="6">
+        <v>998</v>
+      </c>
+      <c r="H77" s="6">
         <f t="shared" si="10"/>
-        <v>1116</v>
-      </c>
-      <c r="H77" s="6">
-        <f t="shared" si="11"/>
-        <v>1120</v>
+        <v>1010</v>
       </c>
       <c r="I77" s="1" t="str">
         <f>VLOOKUP(J77,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>e</v>
+        <v>u</v>
       </c>
       <c r="J77" s="1" t="str">
-        <f>VLOOKUP(B77,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>stove</v>
+        <f>VLOOKUP(B77,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>pan</v>
       </c>
       <c r="K77" s="1">
-        <f>VLOOKUP(B77,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>71</v>
+        <f>VLOOKUP(B77,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="M77" s="1">
         <v>1</v>
@@ -7669,41 +7651,44 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C78" s="4">
-        <v>1.3055555555555556E-2</v>
+        <v>1.1666666666666667E-2</v>
       </c>
       <c r="D78" s="4">
-        <v>1.3101851851851852E-2</v>
+        <v>1.1689814814814814E-2</v>
       </c>
       <c r="E78" s="4">
+        <f t="shared" si="7"/>
+        <v>2.3148148148147141E-5</v>
+      </c>
+      <c r="F78" s="6">
         <f t="shared" si="8"/>
-        <v>4.6296296296296016E-5</v>
-      </c>
-      <c r="F78" s="6">
+        <v>2</v>
+      </c>
+      <c r="G78" s="6">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="G78" s="6">
+        <v>1008</v>
+      </c>
+      <c r="H78" s="6">
         <f t="shared" si="10"/>
-        <v>1128</v>
-      </c>
-      <c r="H78" s="6">
-        <f t="shared" si="11"/>
-        <v>1132</v>
+        <v>1010</v>
       </c>
       <c r="I78" s="1" t="str">
         <f>VLOOKUP(J78,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>e</v>
       </c>
       <c r="J78" s="1" t="str">
-        <f>VLOOKUP(B78,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>fridge</v>
+        <f>VLOOKUP(B78,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>stove</v>
       </c>
       <c r="K78" s="1">
-        <f>VLOOKUP(B78,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(B78,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="M78" s="1">
         <v>1</v>
@@ -7714,40 +7699,40 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C79" s="4">
-        <v>1.3078703703703703E-2</v>
+        <v>1.1712962962962965E-2</v>
       </c>
       <c r="D79" s="4">
-        <v>1.3356481481481483E-2</v>
+        <v>1.1828703703703704E-2</v>
       </c>
       <c r="E79" s="4">
+        <f t="shared" si="7"/>
+        <v>1.1574074074073917E-4</v>
+      </c>
+      <c r="F79" s="6">
         <f t="shared" si="8"/>
-        <v>2.7777777777777957E-4</v>
-      </c>
-      <c r="F79" s="6">
+        <v>10</v>
+      </c>
+      <c r="G79" s="6">
         <f t="shared" si="9"/>
-        <v>24</v>
-      </c>
-      <c r="G79" s="6">
+        <v>1012</v>
+      </c>
+      <c r="H79" s="6">
         <f t="shared" si="10"/>
-        <v>1130</v>
-      </c>
-      <c r="H79" s="6">
-        <f t="shared" si="11"/>
-        <v>1154</v>
+        <v>1022</v>
       </c>
       <c r="I79" s="1" t="str">
         <f>VLOOKUP(J79,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>c</v>
+        <v>u</v>
       </c>
       <c r="J79" s="1" t="str">
-        <f>VLOOKUP(B79,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>tomatoesSauce</v>
+        <f>VLOOKUP(B79,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>fork</v>
       </c>
       <c r="K79" s="1">
-        <f>VLOOKUP(B79,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B79,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M79" s="1">
@@ -7759,44 +7744,41 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C80" s="4">
-        <v>1.3379629629629628E-2</v>
+        <v>1.1712962962962965E-2</v>
       </c>
       <c r="D80" s="4">
-        <v>1.3657407407407408E-2</v>
+        <v>1.1828703703703704E-2</v>
       </c>
       <c r="E80" s="4">
+        <f t="shared" si="7"/>
+        <v>1.1574074074073917E-4</v>
+      </c>
+      <c r="F80" s="6">
         <f t="shared" si="8"/>
-        <v>2.7777777777777957E-4</v>
-      </c>
-      <c r="F80" s="6">
+        <v>10</v>
+      </c>
+      <c r="G80" s="6">
         <f t="shared" si="9"/>
-        <v>24</v>
-      </c>
-      <c r="G80" s="6">
+        <v>1012</v>
+      </c>
+      <c r="H80" s="6">
         <f t="shared" si="10"/>
-        <v>1156</v>
-      </c>
-      <c r="H80" s="6">
-        <f t="shared" si="11"/>
-        <v>1180</v>
+        <v>1022</v>
       </c>
       <c r="I80" s="1" t="str">
         <f>VLOOKUP(J80,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J80" s="1" t="str">
-        <f>VLOOKUP(B80,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>pan</v>
+        <f>VLOOKUP(B80,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>pot</v>
       </c>
       <c r="K80" s="1">
-        <f>VLOOKUP(B80,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M80" s="1">
-        <v>1</v>
+        <f>VLOOKUP(B80,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -7804,44 +7786,41 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C81" s="4">
-        <v>1.3379629629629628E-2</v>
+        <v>1.1712962962962965E-2</v>
       </c>
       <c r="D81" s="4">
-        <v>1.3657407407407408E-2</v>
+        <v>1.1828703703703704E-2</v>
       </c>
       <c r="E81" s="4">
+        <f t="shared" si="7"/>
+        <v>1.1574074074073917E-4</v>
+      </c>
+      <c r="F81" s="6">
         <f t="shared" si="8"/>
-        <v>2.7777777777777957E-4</v>
-      </c>
-      <c r="F81" s="6">
+        <v>10</v>
+      </c>
+      <c r="G81" s="6">
         <f t="shared" si="9"/>
-        <v>24</v>
-      </c>
-      <c r="G81" s="6">
+        <v>1012</v>
+      </c>
+      <c r="H81" s="6">
         <f t="shared" si="10"/>
-        <v>1156</v>
-      </c>
-      <c r="H81" s="6">
-        <f t="shared" si="11"/>
-        <v>1180</v>
+        <v>1022</v>
       </c>
       <c r="I81" s="1" t="str">
         <f>VLOOKUP(J81,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J81" s="1" t="str">
-        <f>VLOOKUP(B81,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>cookingSpoon</v>
-      </c>
-      <c r="K81" s="1">
-        <f>VLOOKUP(B81,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M81" s="1">
-        <v>1</v>
+        <f>VLOOKUP(B81,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>food</v>
+      </c>
+      <c r="K81" s="1" t="str">
+        <f>VLOOKUP(B81,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>pasta</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -7852,37 +7831,37 @@
         <v>18</v>
       </c>
       <c r="C82" s="4">
-        <v>1.3657407407407408E-2</v>
+        <v>1.1921296296296298E-2</v>
       </c>
       <c r="D82" s="4">
-        <v>1.3703703703703704E-2</v>
+        <v>1.1944444444444445E-2</v>
       </c>
       <c r="E82" s="4">
+        <f t="shared" si="7"/>
+        <v>2.3148148148147141E-5</v>
+      </c>
+      <c r="F82" s="6">
         <f t="shared" si="8"/>
-        <v>4.6296296296296016E-5</v>
-      </c>
-      <c r="F82" s="6">
+        <v>2</v>
+      </c>
+      <c r="G82" s="6">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="G82" s="6">
+        <v>1030</v>
+      </c>
+      <c r="H82" s="6">
         <f t="shared" si="10"/>
-        <v>1180</v>
-      </c>
-      <c r="H82" s="6">
-        <f t="shared" si="11"/>
-        <v>1184</v>
+        <v>1032</v>
       </c>
       <c r="I82" s="1" t="str">
         <f>VLOOKUP(J82,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J82" s="1" t="str">
-        <f>VLOOKUP(B82,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
+        <f>VLOOKUP(B82,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
         <v>fork</v>
       </c>
       <c r="K82" s="1">
-        <f>VLOOKUP(B82,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B82,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M82" s="1">
@@ -7894,47 +7873,41 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" s="4">
-        <v>1.3680555555555555E-2</v>
+        <v>1.1921296296296298E-2</v>
       </c>
       <c r="D83" s="4">
-        <v>1.3703703703703704E-2</v>
+        <v>1.1944444444444445E-2</v>
       </c>
       <c r="E83" s="4">
+        <f t="shared" si="7"/>
+        <v>2.3148148148147141E-5</v>
+      </c>
+      <c r="F83" s="6">
         <f t="shared" si="8"/>
-        <v>2.3148148148148875E-5</v>
-      </c>
-      <c r="F83" s="6">
+        <v>2</v>
+      </c>
+      <c r="G83" s="6">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="G83" s="6">
+        <v>1030</v>
+      </c>
+      <c r="H83" s="6">
         <f t="shared" si="10"/>
-        <v>1182</v>
-      </c>
-      <c r="H83" s="6">
-        <f t="shared" si="11"/>
-        <v>1184</v>
+        <v>1032</v>
       </c>
       <c r="I83" s="1" t="str">
         <f>VLOOKUP(J83,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>c</v>
+        <v>u</v>
       </c>
       <c r="J83" s="1" t="str">
-        <f>VLOOKUP(B83,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>spaghetti</v>
+        <f>VLOOKUP(B83,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>pot</v>
       </c>
       <c r="K83" s="1">
-        <f>VLOOKUP(B83,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M83" s="1">
-        <v>1</v>
+        <f>VLOOKUP(B83,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -7942,44 +7915,41 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C84" s="4">
-        <v>1.3703703703703704E-2</v>
+        <v>1.1921296296296298E-2</v>
       </c>
       <c r="D84" s="4">
-        <v>1.3865740740740739E-2</v>
+        <v>1.1944444444444445E-2</v>
       </c>
       <c r="E84" s="4">
+        <f t="shared" si="7"/>
+        <v>2.3148148148147141E-5</v>
+      </c>
+      <c r="F84" s="6">
         <f t="shared" si="8"/>
-        <v>1.6203703703703519E-4</v>
-      </c>
-      <c r="F84" s="6">
+        <v>2</v>
+      </c>
+      <c r="G84" s="6">
         <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="G84" s="6">
+        <v>1030</v>
+      </c>
+      <c r="H84" s="6">
         <f t="shared" si="10"/>
-        <v>1184</v>
-      </c>
-      <c r="H84" s="6">
-        <f t="shared" si="11"/>
-        <v>1198</v>
+        <v>1032</v>
       </c>
       <c r="I84" s="1" t="str">
         <f>VLOOKUP(J84,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J84" s="1" t="str">
-        <f>VLOOKUP(B84,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>pot</v>
-      </c>
-      <c r="K84" s="1">
-        <f>VLOOKUP(B84,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M84" s="1">
-        <v>1</v>
+        <f>VLOOKUP(B84,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>food</v>
+      </c>
+      <c r="K84" s="1" t="str">
+        <f>VLOOKUP(B84,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>pasta</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -7987,44 +7957,41 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C85" s="4">
-        <v>1.3726851851851851E-2</v>
+        <v>1.1967592592592592E-2</v>
       </c>
       <c r="D85" s="4">
-        <v>1.375E-2</v>
+        <v>1.2013888888888888E-2</v>
       </c>
       <c r="E85" s="4">
+        <f t="shared" si="7"/>
+        <v>4.6296296296296016E-5</v>
+      </c>
+      <c r="F85" s="6">
         <f t="shared" si="8"/>
-        <v>2.3148148148148875E-5</v>
-      </c>
-      <c r="F85" s="6">
+        <v>4</v>
+      </c>
+      <c r="G85" s="6">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="G85" s="6">
+        <v>1034</v>
+      </c>
+      <c r="H85" s="6">
         <f t="shared" si="10"/>
-        <v>1186</v>
-      </c>
-      <c r="H85" s="6">
-        <f t="shared" si="11"/>
-        <v>1188</v>
+        <v>1038</v>
       </c>
       <c r="I85" s="1" t="str">
         <f>VLOOKUP(J85,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>e</v>
+        <v>u</v>
       </c>
       <c r="J85" s="1" t="str">
-        <f>VLOOKUP(B85,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>stove</v>
+        <f>VLOOKUP(B85,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>cookingSpoon</v>
       </c>
       <c r="K85" s="1">
-        <f>VLOOKUP(B85,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>71</v>
+        <f>VLOOKUP(B85,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="M85" s="1">
         <v>1</v>
@@ -8035,44 +8002,41 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="C86" s="4">
-        <v>1.3773148148148147E-2</v>
+        <v>1.1967592592592592E-2</v>
       </c>
       <c r="D86" s="4">
-        <v>1.3912037037037037E-2</v>
+        <v>1.2013888888888888E-2</v>
       </c>
       <c r="E86" s="4">
+        <f t="shared" si="7"/>
+        <v>4.6296296296296016E-5</v>
+      </c>
+      <c r="F86" s="6">
         <f t="shared" si="8"/>
-        <v>1.3888888888888978E-4</v>
-      </c>
-      <c r="F86" s="6">
+        <v>4</v>
+      </c>
+      <c r="G86" s="6">
         <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="G86" s="6">
+        <v>1034</v>
+      </c>
+      <c r="H86" s="6">
         <f t="shared" si="10"/>
-        <v>1190</v>
-      </c>
-      <c r="H86" s="6">
-        <f t="shared" si="11"/>
-        <v>1202</v>
+        <v>1038</v>
       </c>
       <c r="I86" s="1" t="str">
         <f>VLOOKUP(J86,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J86" s="1" t="str">
-        <f>VLOOKUP(B86,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>strainer</v>
-      </c>
-      <c r="K86" s="1">
-        <f>VLOOKUP(B86,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M86" s="1">
-        <v>1</v>
+        <f>VLOOKUP(B86,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>food</v>
+      </c>
+      <c r="K86" s="1" t="str">
+        <f>VLOOKUP(B86,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>meat</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -8080,44 +8044,41 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C87" s="4">
-        <v>1.3796296296296298E-2</v>
+        <v>1.1967592592592592E-2</v>
       </c>
       <c r="D87" s="4">
-        <v>1.3912037037037037E-2</v>
+        <v>1.2013888888888888E-2</v>
       </c>
       <c r="E87" s="4">
+        <f t="shared" si="7"/>
+        <v>4.6296296296296016E-5</v>
+      </c>
+      <c r="F87" s="6">
         <f t="shared" si="8"/>
-        <v>1.1574074074073917E-4</v>
-      </c>
-      <c r="F87" s="6">
+        <v>4</v>
+      </c>
+      <c r="G87" s="6">
         <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="G87" s="6">
+        <v>1034</v>
+      </c>
+      <c r="H87" s="6">
         <f t="shared" si="10"/>
-        <v>1192</v>
-      </c>
-      <c r="H87" s="6">
-        <f t="shared" si="11"/>
-        <v>1202</v>
+        <v>1038</v>
       </c>
       <c r="I87" s="1" t="str">
         <f>VLOOKUP(J87,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>c</v>
+        <v>u</v>
       </c>
       <c r="J87" s="1" t="str">
-        <f>VLOOKUP(B87,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>spaghetti</v>
+        <f>VLOOKUP(B87,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>pan</v>
       </c>
       <c r="K87" s="1">
-        <f>VLOOKUP(B87,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M87" s="1">
-        <v>1</v>
+        <f>VLOOKUP(B87,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -8125,40 +8086,40 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C88" s="4">
-        <v>1.3912037037037037E-2</v>
+        <v>1.2129629629629629E-2</v>
       </c>
       <c r="D88" s="4">
-        <v>1.4189814814814815E-2</v>
+        <v>1.2152777777777778E-2</v>
       </c>
       <c r="E88" s="4">
+        <f t="shared" si="7"/>
+        <v>2.3148148148148875E-5</v>
+      </c>
+      <c r="F88" s="6">
         <f t="shared" si="8"/>
-        <v>2.7777777777777783E-4</v>
-      </c>
-      <c r="F88" s="6">
+        <v>2</v>
+      </c>
+      <c r="G88" s="6">
         <f t="shared" si="9"/>
-        <v>24</v>
-      </c>
-      <c r="G88" s="6">
+        <v>1048</v>
+      </c>
+      <c r="H88" s="6">
         <f t="shared" si="10"/>
-        <v>1202</v>
-      </c>
-      <c r="H88" s="6">
-        <f t="shared" si="11"/>
-        <v>1226</v>
+        <v>1050</v>
       </c>
       <c r="I88" s="1" t="str">
         <f>VLOOKUP(J88,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J88" s="1" t="str">
-        <f>VLOOKUP(B88,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>cookingSpoon</v>
+        <f>VLOOKUP(B88,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>pot</v>
       </c>
       <c r="K88" s="1">
-        <f>VLOOKUP(B88,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B88,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M88" s="1">
@@ -8173,37 +8134,37 @@
         <v>11</v>
       </c>
       <c r="C89" s="4">
-        <v>1.3935185185185184E-2</v>
+        <v>1.2129629629629629E-2</v>
       </c>
       <c r="D89" s="4">
-        <v>1.4189814814814815E-2</v>
+        <v>1.2199074074074072E-2</v>
       </c>
       <c r="E89" s="4">
+        <f t="shared" si="7"/>
+        <v>6.9444444444443157E-5</v>
+      </c>
+      <c r="F89" s="6">
         <f t="shared" si="8"/>
-        <v>2.5462962962963069E-4</v>
-      </c>
-      <c r="F89" s="6">
+        <v>6</v>
+      </c>
+      <c r="G89" s="6">
         <f t="shared" si="9"/>
-        <v>22</v>
-      </c>
-      <c r="G89" s="6">
+        <v>1048</v>
+      </c>
+      <c r="H89" s="6">
         <f t="shared" si="10"/>
-        <v>1204</v>
-      </c>
-      <c r="H89" s="6">
-        <f t="shared" si="11"/>
-        <v>1226</v>
+        <v>1054</v>
       </c>
       <c r="I89" s="1" t="str">
         <f>VLOOKUP(J89,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J89" s="1" t="str">
-        <f>VLOOKUP(B89,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
+        <f>VLOOKUP(B89,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
         <v>pan</v>
       </c>
       <c r="K89" s="1">
-        <f>VLOOKUP(B89,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B89,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M89" s="1">
@@ -8215,44 +8176,41 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="C90" s="4">
-        <v>1.4212962962962962E-2</v>
+        <v>1.2129629629629629E-2</v>
       </c>
       <c r="D90" s="4">
-        <v>1.4282407407407409E-2</v>
+        <v>1.2199074074074072E-2</v>
       </c>
       <c r="E90" s="4">
+        <f t="shared" si="7"/>
+        <v>6.9444444444443157E-5</v>
+      </c>
+      <c r="F90" s="6">
         <f t="shared" si="8"/>
-        <v>6.9444444444446626E-5</v>
-      </c>
-      <c r="F90" s="6">
+        <v>6</v>
+      </c>
+      <c r="G90" s="6">
         <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="G90" s="6">
+        <v>1048</v>
+      </c>
+      <c r="H90" s="6">
         <f t="shared" si="10"/>
-        <v>1228</v>
-      </c>
-      <c r="H90" s="6">
-        <f t="shared" si="11"/>
-        <v>1234</v>
+        <v>1054</v>
       </c>
       <c r="I90" s="1" t="str">
         <f>VLOOKUP(J90,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J90" s="1" t="str">
-        <f>VLOOKUP(B90,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
-        <v>plate</v>
-      </c>
-      <c r="K90" s="1">
-        <f>VLOOKUP(B90,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M90" s="1">
-        <v>1</v>
+        <f>VLOOKUP(B90,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>food</v>
+      </c>
+      <c r="K90" s="1" t="str">
+        <f>VLOOKUP(B90,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>meat</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -8263,37 +8221,37 @@
         <v>22</v>
       </c>
       <c r="C91" s="4">
-        <v>1.4282407407407409E-2</v>
+        <v>1.2152777777777778E-2</v>
       </c>
       <c r="D91" s="4">
-        <v>1.4560185185185183E-2</v>
+        <v>1.2199074074074072E-2</v>
       </c>
       <c r="E91" s="4">
+        <f t="shared" si="7"/>
+        <v>4.6296296296294281E-5</v>
+      </c>
+      <c r="F91" s="6">
         <f t="shared" si="8"/>
-        <v>2.7777777777777436E-4</v>
-      </c>
-      <c r="F91" s="6">
+        <v>4</v>
+      </c>
+      <c r="G91" s="6">
         <f t="shared" si="9"/>
-        <v>24</v>
-      </c>
-      <c r="G91" s="6">
+        <v>1050</v>
+      </c>
+      <c r="H91" s="6">
         <f t="shared" si="10"/>
-        <v>1234</v>
-      </c>
-      <c r="H91" s="6">
-        <f t="shared" si="11"/>
-        <v>1258</v>
+        <v>1054</v>
       </c>
       <c r="I91" s="1" t="str">
         <f>VLOOKUP(J91,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
         <v>u</v>
       </c>
       <c r="J91" s="1" t="str">
-        <f>VLOOKUP(B91,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
+        <f>VLOOKUP(B91,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
         <v>cookingSpoon</v>
       </c>
       <c r="K91" s="1">
-        <f>VLOOKUP(B91,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
+        <f>VLOOKUP(B91,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M91" s="1">
@@ -8305,56 +8263,1310 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="4">
+        <v>1.2222222222222223E-2</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1.224537037037037E-2</v>
+      </c>
+      <c r="E92" s="4">
+        <f t="shared" si="7"/>
+        <v>2.3148148148147141E-5</v>
+      </c>
+      <c r="F92" s="6">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="G92" s="6">
+        <f t="shared" si="9"/>
+        <v>1056</v>
+      </c>
+      <c r="H92" s="6">
+        <f t="shared" si="10"/>
+        <v>1058</v>
+      </c>
+      <c r="I92" s="1" t="str">
+        <f>VLOOKUP(J92,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
+        <v>u</v>
+      </c>
+      <c r="J92" s="1" t="str">
+        <f>VLOOKUP(B92,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>fork</v>
+      </c>
+      <c r="K92" s="1">
+        <f>VLOOKUP(B92,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="4">
+        <v>1.2222222222222223E-2</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1.224537037037037E-2</v>
+      </c>
+      <c r="E93" s="4">
+        <f t="shared" si="7"/>
+        <v>2.3148148148147141E-5</v>
+      </c>
+      <c r="F93" s="6">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="G93" s="6">
+        <f t="shared" si="9"/>
+        <v>1056</v>
+      </c>
+      <c r="H93" s="6">
+        <f t="shared" si="10"/>
+        <v>1058</v>
+      </c>
+      <c r="I93" s="1" t="str">
+        <f>VLOOKUP(J93,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
+        <v>u</v>
+      </c>
+      <c r="J93" s="1" t="str">
+        <f>VLOOKUP(B93,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>pot</v>
+      </c>
+      <c r="K93" s="1">
+        <f>VLOOKUP(B93,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C94" s="4">
+        <v>1.2222222222222223E-2</v>
+      </c>
+      <c r="D94" s="4">
+        <v>1.224537037037037E-2</v>
+      </c>
+      <c r="E94" s="4">
+        <f t="shared" si="7"/>
+        <v>2.3148148148147141E-5</v>
+      </c>
+      <c r="F94" s="6">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="G94" s="6">
+        <f t="shared" si="9"/>
+        <v>1056</v>
+      </c>
+      <c r="H94" s="6">
+        <f t="shared" si="10"/>
+        <v>1058</v>
+      </c>
+      <c r="I94" s="1" t="str">
+        <f>VLOOKUP(J94,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
+        <v>c</v>
+      </c>
+      <c r="J94" s="1" t="str">
+        <f>VLOOKUP(B94,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>food</v>
+      </c>
+      <c r="K94" s="1" t="str">
+        <f>VLOOKUP(B94,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>pasta</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" s="4">
+        <v>1.2268518518518519E-2</v>
+      </c>
+      <c r="D95" s="4">
+        <v>1.252314814814815E-2</v>
+      </c>
+      <c r="E95" s="4">
+        <f t="shared" si="7"/>
+        <v>2.5462962962963069E-4</v>
+      </c>
+      <c r="F95" s="6">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="G95" s="6">
+        <f t="shared" si="9"/>
+        <v>1060</v>
+      </c>
+      <c r="H95" s="6">
+        <f t="shared" si="10"/>
+        <v>1082</v>
+      </c>
+      <c r="I95" s="1" t="str">
+        <f>VLOOKUP(J95,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
+        <v>u</v>
+      </c>
+      <c r="J95" s="1" t="str">
+        <f>VLOOKUP(B95,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>phone</v>
+      </c>
+      <c r="K95" s="1">
+        <f>VLOOKUP(B95,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" s="4">
+        <v>1.252314814814815E-2</v>
+      </c>
+      <c r="D96" s="4">
+        <v>1.2731481481481481E-2</v>
+      </c>
+      <c r="E96" s="4">
+        <f t="shared" si="7"/>
+        <v>2.0833333333333121E-4</v>
+      </c>
+      <c r="F96" s="6">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="G96" s="6">
+        <f t="shared" si="9"/>
+        <v>1082</v>
+      </c>
+      <c r="H96" s="6">
+        <f t="shared" si="10"/>
+        <v>1100</v>
+      </c>
+      <c r="I96" s="1" t="str">
+        <f>VLOOKUP(J96,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
+        <v>u</v>
+      </c>
+      <c r="J96" s="1" t="str">
+        <f>VLOOKUP(B96,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>pot</v>
+      </c>
+      <c r="K96" s="1">
+        <f>VLOOKUP(B96,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" s="4">
+        <v>1.2546296296296297E-2</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1.2731481481481481E-2</v>
+      </c>
+      <c r="E97" s="4">
+        <f t="shared" si="7"/>
+        <v>1.8518518518518406E-4</v>
+      </c>
+      <c r="F97" s="6">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="G97" s="6">
+        <f t="shared" si="9"/>
+        <v>1084</v>
+      </c>
+      <c r="H97" s="6">
+        <f t="shared" si="10"/>
+        <v>1100</v>
+      </c>
+      <c r="I97" s="1" t="str">
+        <f>VLOOKUP(J97,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
+        <v>u</v>
+      </c>
+      <c r="J97" s="1" t="str">
+        <f>VLOOKUP(B97,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>fork</v>
+      </c>
+      <c r="K97" s="1">
+        <f>VLOOKUP(B97,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C98" s="4">
+        <v>1.2546296296296297E-2</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1.2731481481481481E-2</v>
+      </c>
+      <c r="E98" s="4">
+        <f t="shared" si="7"/>
+        <v>1.8518518518518406E-4</v>
+      </c>
+      <c r="F98" s="6">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="G98" s="6">
+        <f t="shared" si="9"/>
+        <v>1084</v>
+      </c>
+      <c r="H98" s="6">
+        <f t="shared" si="10"/>
+        <v>1100</v>
+      </c>
+      <c r="I98" s="1" t="str">
+        <f>VLOOKUP(J98,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
+        <v>c</v>
+      </c>
+      <c r="J98" s="1" t="str">
+        <f>VLOOKUP(B98,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>food</v>
+      </c>
+      <c r="K98" s="1" t="str">
+        <f>VLOOKUP(B98,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>pasta</v>
+      </c>
+      <c r="M98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C99" s="4">
+        <v>1.2847222222222223E-2</v>
+      </c>
+      <c r="D99" s="4">
+        <v>1.2939814814814814E-2</v>
+      </c>
+      <c r="E99" s="4">
+        <f t="shared" si="7"/>
+        <v>9.2592592592590298E-5</v>
+      </c>
+      <c r="F99" s="6">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G99" s="6">
+        <f t="shared" si="9"/>
+        <v>1110</v>
+      </c>
+      <c r="H99" s="6">
+        <f t="shared" si="10"/>
+        <v>1118</v>
+      </c>
+      <c r="I99" s="1" t="str">
+        <f>VLOOKUP(J99,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
+        <v>u</v>
+      </c>
+      <c r="J99" s="1" t="str">
+        <f>VLOOKUP(B99,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>pan</v>
+      </c>
+      <c r="K99" s="1">
+        <f>VLOOKUP(B99,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C100" s="4">
+        <v>1.2847222222222223E-2</v>
+      </c>
+      <c r="D100" s="4">
+        <v>1.2939814814814814E-2</v>
+      </c>
+      <c r="E100" s="4">
+        <f t="shared" si="7"/>
+        <v>9.2592592592590298E-5</v>
+      </c>
+      <c r="F100" s="6">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G100" s="6">
+        <f t="shared" si="9"/>
+        <v>1110</v>
+      </c>
+      <c r="H100" s="6">
+        <f t="shared" si="10"/>
+        <v>1118</v>
+      </c>
+      <c r="I100" s="1" t="str">
+        <f>VLOOKUP(J100,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
+        <v>c</v>
+      </c>
+      <c r="J100" s="1" t="str">
+        <f>VLOOKUP(B100,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>food</v>
+      </c>
+      <c r="K100" s="1" t="str">
+        <f>VLOOKUP(B100,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>meat</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" s="4">
+        <v>1.2847222222222223E-2</v>
+      </c>
+      <c r="D101" s="4">
+        <v>1.2939814814814814E-2</v>
+      </c>
+      <c r="E101" s="4">
+        <f t="shared" si="7"/>
+        <v>9.2592592592590298E-5</v>
+      </c>
+      <c r="F101" s="6">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G101" s="6">
+        <f t="shared" si="9"/>
+        <v>1110</v>
+      </c>
+      <c r="H101" s="6">
+        <f t="shared" si="10"/>
+        <v>1118</v>
+      </c>
+      <c r="I101" s="1" t="str">
+        <f>VLOOKUP(J101,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
+        <v>u</v>
+      </c>
+      <c r="J101" s="1" t="str">
+        <f>VLOOKUP(B101,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>cookingSpoon</v>
+      </c>
+      <c r="K101" s="1">
+        <f>VLOOKUP(B101,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" s="4">
+        <v>1.2916666666666667E-2</v>
+      </c>
+      <c r="D102" s="4">
+        <v>1.2962962962962963E-2</v>
+      </c>
+      <c r="E102" s="4">
+        <f t="shared" si="7"/>
+        <v>4.6296296296296016E-5</v>
+      </c>
+      <c r="F102" s="6">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="G102" s="6">
+        <f t="shared" si="9"/>
+        <v>1116</v>
+      </c>
+      <c r="H102" s="6">
+        <f t="shared" si="10"/>
+        <v>1120</v>
+      </c>
+      <c r="I102" s="1" t="str">
+        <f>VLOOKUP(J102,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
+        <v>e</v>
+      </c>
+      <c r="J102" s="1" t="str">
+        <f>VLOOKUP(B102,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>stove</v>
+      </c>
+      <c r="K102" s="1">
+        <f>VLOOKUP(B102,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C103" s="4">
+        <v>1.3055555555555556E-2</v>
+      </c>
+      <c r="D103" s="4">
+        <v>1.3101851851851852E-2</v>
+      </c>
+      <c r="E103" s="4">
+        <f t="shared" si="7"/>
+        <v>4.6296296296296016E-5</v>
+      </c>
+      <c r="F103" s="6">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="G103" s="6">
+        <f t="shared" si="9"/>
+        <v>1128</v>
+      </c>
+      <c r="H103" s="6">
+        <f t="shared" si="10"/>
+        <v>1132</v>
+      </c>
+      <c r="I103" s="1" t="str">
+        <f>VLOOKUP(J103,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
+        <v>e</v>
+      </c>
+      <c r="J103" s="1" t="str">
+        <f>VLOOKUP(B103,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>fridge</v>
+      </c>
+      <c r="K103" s="1">
+        <f>VLOOKUP(B103,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" s="4">
+        <v>1.3078703703703703E-2</v>
+      </c>
+      <c r="D104" s="4">
+        <v>1.3356481481481483E-2</v>
+      </c>
+      <c r="E104" s="4">
+        <f t="shared" si="7"/>
+        <v>2.7777777777777957E-4</v>
+      </c>
+      <c r="F104" s="6">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="G104" s="6">
+        <f t="shared" si="9"/>
+        <v>1130</v>
+      </c>
+      <c r="H104" s="6">
+        <f t="shared" si="10"/>
+        <v>1154</v>
+      </c>
+      <c r="I104" s="1" t="str">
+        <f>VLOOKUP(J104,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
+        <v>c</v>
+      </c>
+      <c r="J104" s="1" t="str">
+        <f>VLOOKUP(B104,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>tomatoesSauce</v>
+      </c>
+      <c r="K104" s="1">
+        <f>VLOOKUP(B104,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="4">
+        <v>1.3379629629629628E-2</v>
+      </c>
+      <c r="D105" s="4">
+        <v>1.3657407407407408E-2</v>
+      </c>
+      <c r="E105" s="4">
+        <f t="shared" si="7"/>
+        <v>2.7777777777777957E-4</v>
+      </c>
+      <c r="F105" s="6">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="G105" s="6">
+        <f t="shared" si="9"/>
+        <v>1156</v>
+      </c>
+      <c r="H105" s="6">
+        <f t="shared" si="10"/>
+        <v>1180</v>
+      </c>
+      <c r="I105" s="1" t="str">
+        <f>VLOOKUP(J105,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
+        <v>u</v>
+      </c>
+      <c r="J105" s="1" t="str">
+        <f>VLOOKUP(B105,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>pan</v>
+      </c>
+      <c r="K105" s="1">
+        <f>VLOOKUP(B105,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C106" s="4">
+        <v>1.3379629629629628E-2</v>
+      </c>
+      <c r="D106" s="4">
+        <v>1.3657407407407408E-2</v>
+      </c>
+      <c r="E106" s="4">
+        <f t="shared" si="7"/>
+        <v>2.7777777777777957E-4</v>
+      </c>
+      <c r="F106" s="6">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="G106" s="6">
+        <f t="shared" si="9"/>
+        <v>1156</v>
+      </c>
+      <c r="H106" s="6">
+        <f t="shared" si="10"/>
+        <v>1180</v>
+      </c>
+      <c r="I106" s="1" t="str">
+        <f>VLOOKUP(J106,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
+        <v>c</v>
+      </c>
+      <c r="J106" s="1" t="str">
+        <f>VLOOKUP(B106,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>food</v>
+      </c>
+      <c r="K106" s="1" t="str">
+        <f>VLOOKUP(B106,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>meat</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" s="4">
+        <v>1.3379629629629628E-2</v>
+      </c>
+      <c r="D107" s="4">
+        <v>1.3657407407407408E-2</v>
+      </c>
+      <c r="E107" s="4">
+        <f t="shared" si="7"/>
+        <v>2.7777777777777957E-4</v>
+      </c>
+      <c r="F107" s="6">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="G107" s="6">
+        <f t="shared" si="9"/>
+        <v>1156</v>
+      </c>
+      <c r="H107" s="6">
+        <f t="shared" si="10"/>
+        <v>1180</v>
+      </c>
+      <c r="I107" s="1" t="str">
+        <f>VLOOKUP(J107,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
+        <v>u</v>
+      </c>
+      <c r="J107" s="1" t="str">
+        <f>VLOOKUP(B107,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>cookingSpoon</v>
+      </c>
+      <c r="K107" s="1">
+        <f>VLOOKUP(B107,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M107" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" s="4">
+        <v>1.3657407407407408E-2</v>
+      </c>
+      <c r="D108" s="4">
+        <v>1.3703703703703704E-2</v>
+      </c>
+      <c r="E108" s="4">
+        <f t="shared" si="7"/>
+        <v>4.6296296296296016E-5</v>
+      </c>
+      <c r="F108" s="6">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="G108" s="6">
+        <f t="shared" si="9"/>
+        <v>1180</v>
+      </c>
+      <c r="H108" s="6">
+        <f t="shared" si="10"/>
+        <v>1184</v>
+      </c>
+      <c r="I108" s="1" t="str">
+        <f>VLOOKUP(J108,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
+        <v>u</v>
+      </c>
+      <c r="J108" s="1" t="str">
+        <f>VLOOKUP(B108,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>fork</v>
+      </c>
+      <c r="K108" s="1">
+        <f>VLOOKUP(B108,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C109" s="4">
+        <v>1.3680555555555555E-2</v>
+      </c>
+      <c r="D109" s="4">
+        <v>1.3703703703703704E-2</v>
+      </c>
+      <c r="E109" s="4">
+        <f t="shared" si="7"/>
+        <v>2.3148148148148875E-5</v>
+      </c>
+      <c r="F109" s="6">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="G109" s="6">
+        <f t="shared" si="9"/>
+        <v>1182</v>
+      </c>
+      <c r="H109" s="6">
+        <f t="shared" si="10"/>
+        <v>1184</v>
+      </c>
+      <c r="I109" s="1" t="str">
+        <f>VLOOKUP(J109,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
+        <v>c</v>
+      </c>
+      <c r="J109" s="1" t="str">
+        <f>VLOOKUP(B109,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>food</v>
+      </c>
+      <c r="K109" s="1" t="str">
+        <f>VLOOKUP(B109,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>pasta</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M109" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" s="4">
+        <v>1.3703703703703704E-2</v>
+      </c>
+      <c r="D110" s="4">
+        <v>1.3865740740740739E-2</v>
+      </c>
+      <c r="E110" s="4">
+        <f t="shared" si="7"/>
+        <v>1.6203703703703519E-4</v>
+      </c>
+      <c r="F110" s="6">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="G110" s="6">
+        <f t="shared" si="9"/>
+        <v>1184</v>
+      </c>
+      <c r="H110" s="6">
+        <f t="shared" si="10"/>
+        <v>1198</v>
+      </c>
+      <c r="I110" s="1" t="str">
+        <f>VLOOKUP(J110,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
+        <v>u</v>
+      </c>
+      <c r="J110" s="1" t="str">
+        <f>VLOOKUP(B110,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>pot</v>
+      </c>
+      <c r="K110" s="1">
+        <f>VLOOKUP(B110,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="4">
+        <v>1.3726851851851851E-2</v>
+      </c>
+      <c r="D111" s="4">
+        <v>1.375E-2</v>
+      </c>
+      <c r="E111" s="4">
+        <f t="shared" si="7"/>
+        <v>2.3148148148148875E-5</v>
+      </c>
+      <c r="F111" s="6">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="G111" s="6">
+        <f t="shared" si="9"/>
+        <v>1186</v>
+      </c>
+      <c r="H111" s="6">
+        <f t="shared" si="10"/>
+        <v>1188</v>
+      </c>
+      <c r="I111" s="1" t="str">
+        <f>VLOOKUP(J111,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
+        <v>e</v>
+      </c>
+      <c r="J111" s="1" t="str">
+        <f>VLOOKUP(B111,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>stove</v>
+      </c>
+      <c r="K111" s="1">
+        <f>VLOOKUP(B111,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M111" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" s="4">
+        <v>1.3773148148148147E-2</v>
+      </c>
+      <c r="D112" s="4">
+        <v>1.3912037037037037E-2</v>
+      </c>
+      <c r="E112" s="4">
+        <f t="shared" si="7"/>
+        <v>1.3888888888888978E-4</v>
+      </c>
+      <c r="F112" s="6">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="G112" s="6">
+        <f t="shared" si="9"/>
+        <v>1190</v>
+      </c>
+      <c r="H112" s="6">
+        <f t="shared" si="10"/>
+        <v>1202</v>
+      </c>
+      <c r="I112" s="1" t="str">
+        <f>VLOOKUP(J112,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
+        <v>u</v>
+      </c>
+      <c r="J112" s="1" t="str">
+        <f>VLOOKUP(B112,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>strainer</v>
+      </c>
+      <c r="K112" s="1">
+        <f>VLOOKUP(B112,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M112" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C113" s="4">
+        <v>1.3796296296296298E-2</v>
+      </c>
+      <c r="D113" s="4">
+        <v>1.3912037037037037E-2</v>
+      </c>
+      <c r="E113" s="4">
+        <f t="shared" si="7"/>
+        <v>1.1574074074073917E-4</v>
+      </c>
+      <c r="F113" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="G113" s="6">
+        <f t="shared" si="9"/>
+        <v>1192</v>
+      </c>
+      <c r="H113" s="6">
+        <f t="shared" si="10"/>
+        <v>1202</v>
+      </c>
+      <c r="I113" s="1" t="str">
+        <f>VLOOKUP(J113,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
+        <v>c</v>
+      </c>
+      <c r="J113" s="1" t="str">
+        <f>VLOOKUP(B113,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>food</v>
+      </c>
+      <c r="K113" s="1" t="str">
+        <f>VLOOKUP(B113,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>pasta</v>
+      </c>
+      <c r="M113" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" s="4">
+        <v>1.3912037037037037E-2</v>
+      </c>
+      <c r="D114" s="4">
+        <v>1.4189814814814815E-2</v>
+      </c>
+      <c r="E114" s="4">
+        <f t="shared" si="7"/>
+        <v>2.7777777777777783E-4</v>
+      </c>
+      <c r="F114" s="6">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="G114" s="6">
+        <f t="shared" si="9"/>
+        <v>1202</v>
+      </c>
+      <c r="H114" s="6">
+        <f t="shared" si="10"/>
+        <v>1226</v>
+      </c>
+      <c r="I114" s="1" t="str">
+        <f>VLOOKUP(J114,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
+        <v>u</v>
+      </c>
+      <c r="J114" s="1" t="str">
+        <f>VLOOKUP(B114,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>cookingSpoon</v>
+      </c>
+      <c r="K114" s="1">
+        <f>VLOOKUP(B114,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M114" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C115" s="4">
+        <v>1.3912037037037037E-2</v>
+      </c>
+      <c r="D115" s="4">
+        <v>1.4189814814814815E-2</v>
+      </c>
+      <c r="E115" s="4">
+        <f t="shared" si="7"/>
+        <v>2.7777777777777783E-4</v>
+      </c>
+      <c r="F115" s="6">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="G115" s="6">
+        <f t="shared" si="9"/>
+        <v>1202</v>
+      </c>
+      <c r="H115" s="6">
+        <f t="shared" si="10"/>
+        <v>1226</v>
+      </c>
+      <c r="I115" s="1" t="str">
+        <f>VLOOKUP(J115,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
+        <v>c</v>
+      </c>
+      <c r="J115" s="1" t="str">
+        <f>VLOOKUP(B115,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>food</v>
+      </c>
+      <c r="K115" s="1" t="str">
+        <f>VLOOKUP(B115,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>bolognese</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="4">
+        <v>1.3935185185185184E-2</v>
+      </c>
+      <c r="D116" s="4">
+        <v>1.4189814814814815E-2</v>
+      </c>
+      <c r="E116" s="4">
+        <f t="shared" si="7"/>
+        <v>2.5462962962963069E-4</v>
+      </c>
+      <c r="F116" s="6">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="G116" s="6">
+        <f t="shared" si="9"/>
+        <v>1204</v>
+      </c>
+      <c r="H116" s="6">
+        <f t="shared" si="10"/>
+        <v>1226</v>
+      </c>
+      <c r="I116" s="1" t="str">
+        <f>VLOOKUP(J116,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
+        <v>u</v>
+      </c>
+      <c r="J116" s="1" t="str">
+        <f>VLOOKUP(B116,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>pan</v>
+      </c>
+      <c r="K116" s="1">
+        <f>VLOOKUP(B116,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M116" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="4">
+        <v>1.4212962962962962E-2</v>
+      </c>
+      <c r="D117" s="4">
         <v>1.4282407407407409E-2</v>
       </c>
-      <c r="D92" s="4">
-        <v>1.4560185185185183E-2</v>
-      </c>
-      <c r="E92" s="4">
+      <c r="E117" s="4">
+        <f t="shared" si="7"/>
+        <v>6.9444444444446626E-5</v>
+      </c>
+      <c r="F117" s="6">
         <f t="shared" si="8"/>
-        <v>2.7777777777777436E-4</v>
-      </c>
-      <c r="F92" s="6">
+        <v>6</v>
+      </c>
+      <c r="G117" s="6">
         <f t="shared" si="9"/>
-        <v>24</v>
-      </c>
-      <c r="G92" s="6">
+        <v>1228</v>
+      </c>
+      <c r="H117" s="6">
         <f t="shared" si="10"/>
         <v>1234</v>
       </c>
-      <c r="H92" s="6">
-        <f t="shared" si="11"/>
+      <c r="I117" s="1" t="str">
+        <f>VLOOKUP(J117,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
+        <v>u</v>
+      </c>
+      <c r="J117" s="1" t="str">
+        <f>VLOOKUP(B117,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>plate</v>
+      </c>
+      <c r="K117" s="1">
+        <f>VLOOKUP(B117,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M117" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118" s="4">
+        <v>1.4282407407407409E-2</v>
+      </c>
+      <c r="D118" s="4">
+        <v>1.4560185185185183E-2</v>
+      </c>
+      <c r="E118" s="4">
+        <f t="shared" si="7"/>
+        <v>2.7777777777777436E-4</v>
+      </c>
+      <c r="F118" s="6">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="G118" s="6">
+        <f t="shared" si="9"/>
+        <v>1234</v>
+      </c>
+      <c r="H118" s="6">
+        <f t="shared" si="10"/>
         <v>1258</v>
       </c>
-      <c r="I92" s="1" t="str">
-        <f>VLOOKUP(J92,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
-        <v>u</v>
-      </c>
-      <c r="J92" s="1" t="str">
-        <f>VLOOKUP(B92,'[1]p03-items'!$A$2:$D$22,3,FALSE)</f>
+      <c r="I118" s="1" t="str">
+        <f>VLOOKUP(J118,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
+        <v>u</v>
+      </c>
+      <c r="J118" s="1" t="str">
+        <f>VLOOKUP(B118,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>cookingSpoon</v>
+      </c>
+      <c r="K118" s="1">
+        <f>VLOOKUP(B118,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M118" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C119" s="4">
+        <v>1.4282407407407409E-2</v>
+      </c>
+      <c r="D119" s="4">
+        <v>1.4560185185185183E-2</v>
+      </c>
+      <c r="E119" s="4">
+        <f t="shared" si="7"/>
+        <v>2.7777777777777436E-4</v>
+      </c>
+      <c r="F119" s="6">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="G119" s="6">
+        <f t="shared" si="9"/>
+        <v>1234</v>
+      </c>
+      <c r="H119" s="6">
+        <f t="shared" si="10"/>
+        <v>1258</v>
+      </c>
+      <c r="I119" s="1" t="str">
+        <f>VLOOKUP(J119,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
+        <v>c</v>
+      </c>
+      <c r="J119" s="1" t="str">
+        <f>VLOOKUP(B119,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
+        <v>food</v>
+      </c>
+      <c r="K119" s="1" t="str">
+        <f>VLOOKUP(B119,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>bolognese</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="4">
+        <v>1.4282407407407409E-2</v>
+      </c>
+      <c r="D120" s="4">
+        <v>1.4560185185185183E-2</v>
+      </c>
+      <c r="E120" s="4">
+        <f t="shared" si="7"/>
+        <v>2.7777777777777436E-4</v>
+      </c>
+      <c r="F120" s="6">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="G120" s="6">
+        <f t="shared" si="9"/>
+        <v>1234</v>
+      </c>
+      <c r="H120" s="6">
+        <f t="shared" si="10"/>
+        <v>1258</v>
+      </c>
+      <c r="I120" s="1" t="str">
+        <f>VLOOKUP(J120,'[1]all-items'!$A$2:$C$299,2,FALSE)</f>
+        <v>u</v>
+      </c>
+      <c r="J120" s="1" t="str">
+        <f>VLOOKUP(B120,'[1]p03-items'!$A$2:$D$30,3,FALSE)</f>
         <v>pan</v>
       </c>
-      <c r="K92" s="1">
-        <f>VLOOKUP(B92,'[1]p03-items'!$A$2:$D$22,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M92" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="3"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="2"/>
-    </row>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="K120" s="1">
+        <f>VLOOKUP(B120,'[1]p03-items'!$A$2:$D$30,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M120" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" s="3"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="2"/>
+    </row>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="A2:M220">
     <sortCondition ref="C1"/>
@@ -8368,7 +9580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
     </sheetView>
